--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1278 +397,1381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>208.0640252338268</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>18.18037252105642</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>85.99455978306703</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>17.88784361861205</v>
+      </c>
+      <c r="F2">
         <v>78.41506795946596</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>213.79319616155</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>8.414356999716139</v>
       </c>
-      <c r="H2" t="n">
-        <v>612.8615786586823</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>630.7494222772945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>213.6676231031218</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>21.54710817310391</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>66.14966137159001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>24.59578497559158</v>
+      </c>
+      <c r="F3">
         <v>68.00056674609939</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>181.8470863902839</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>3.606152999878346</v>
       </c>
-      <c r="H3" t="n">
-        <v>554.8181987840774</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>579.413983759669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>215.8603353128459</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>25.58719095556089</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>70.55963879636269</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>24.59578497559158</v>
+      </c>
+      <c r="F4">
         <v>64.93747815393274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>201.5062308649093</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>2.404101999918897</v>
       </c>
-      <c r="H4" t="n">
-        <v>580.8549760835305</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>605.450761059122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>252.8928081881875</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>22.89380243392291</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>99.22449205738504</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>33.5397067848976</v>
+      </c>
+      <c r="F5">
         <v>84.54124514379923</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>211.3358031022219</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>9.616407999675589</v>
       </c>
-      <c r="H5" t="n">
-        <v>680.5045589251922</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>714.0442657100898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>247.7764796988312</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>19.52706678187542</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>88.19954849545337</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>29.06774588024459</v>
+      </c>
+      <c r="F6">
         <v>82.09077427006592</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>213.79319616155</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>7.212305999756691</v>
       </c>
-      <c r="H6" t="n">
-        <v>658.5993714075327</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>687.6671172877773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>282.1289709845097</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>18.85371965146592</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>94.81451463261237</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>31.3037263325711</v>
+      </c>
+      <c r="F7">
         <v>67.38794902766605</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>189.2192655682684</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>12.02050999959449</v>
       </c>
-      <c r="H7" t="n">
-        <v>664.424929864117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>695.7286561966881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>313.314211300587</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>14.81363686900893</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>130.0943340307937</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>51.42755040350966</v>
+      </c>
+      <c r="F8">
         <v>72.28889077513269</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>132.6992252037207</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>13.22256099955393</v>
       </c>
-      <c r="H8" t="n">
-        <v>676.4328591787969</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>727.8604095823066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>363.2593227443041</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>9.426859825732958</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>108.0444469069304</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>62.6074526651422</v>
+      </c>
+      <c r="F9">
         <v>35.53182766913302</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>115.4974737884236</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>4.808203999837795</v>
       </c>
-      <c r="H9" t="n">
-        <v>636.5681349343619</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>699.1755875995041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>406.8699322488182</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8.753512695323463</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>68.35465008397637</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>91.67519854538682</v>
+      </c>
+      <c r="F10">
         <v>23.89209101889978</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>130.2418321443926</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>2.404101999918897</v>
       </c>
-      <c r="H10" t="n">
-        <v>640.5161201913294</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>732.1913187367162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>282.8598750544178</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>11.44690121696145</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>35.27981939818135</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>89.43921809306028</v>
+      </c>
+      <c r="F11">
         <v>24.50470873733311</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>132.6992252037207</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>2.404101999918897</v>
       </c>
-      <c r="H11" t="n">
-        <v>489.1946316105333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>578.6338497035937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>224.3875494617735</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14.14028973859944</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>52.91972909727203</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>67.07941356979519</v>
+      </c>
+      <c r="F12">
         <v>16.54067839769985</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>184.3044794496121</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>492.2927261449569</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>559.3721397147522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>198.562272325022</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>14.81363686900893</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>39.68979682295402</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>22.35980452326507</v>
+      </c>
+      <c r="F13">
         <v>17.15329611613318</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>108.1252946104391</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>378.3442967435572</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>400.7041012668222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>125.9591347141551</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>12.12024834737095</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>28.66485326102235</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>33.5397067848976</v>
+      </c>
+      <c r="F14">
         <v>14.09020752396654</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>125.3270460257362</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>306.1614898722511</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>339.7011966571487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>79.91217830994751</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>12.12024834737095</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>6.614966137159003</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F15">
         <v>6.738794902766606</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>90.92354319514197</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>196.309730892386</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>216.4335549633246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>39.22518508506571</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>11.44690121696145</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2.204988712386334</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>15.65186316628555</v>
+      </c>
+      <c r="F16">
         <v>12.25235436866656</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>86.00875707648564</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>1.202050999959449</v>
       </c>
-      <c r="H16" t="n">
-        <v>152.3402374595252</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>167.9921006258107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>27.77435465650613</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.060124173685475</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4.409977424772668</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>8.943921809306024</v>
+      </c>
+      <c r="F17">
         <v>12.86497208709988</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>83.55136401715748</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>134.6607923592217</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>143.6047141685277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>19.24714050757882</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.040082782456983</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>6.614966137159003</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>11.0271189317999</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>73.72179177984484</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>114.6511001388395</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>17.54169767779335</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>6.733471304094972</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>6.614966137159003</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>4.471960904653012</v>
+      </c>
+      <c r="F19">
         <v>10.41450121336657</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>113.0400807290954</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>154.3447170615093</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>158.8166779661623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>30.21070155619966</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>6.733471304094972</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>6.614966137159003</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>8.943921809306024</v>
+      </c>
+      <c r="F20">
         <v>15.92806067926652</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>206.4210169835656</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>1.202050999959449</v>
       </c>
-      <c r="H20" t="n">
-        <v>267.1102676602451</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>276.0541894695512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>99.15931881752633</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>6.733471304094972</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>22.04988712386334</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>44.71960904653014</v>
+      </c>
+      <c r="F21">
         <v>18.99114927143317</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>299.8019532380356</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>1.202050999959449</v>
       </c>
-      <c r="H21" t="n">
-        <v>447.9378307549129</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>492.657439801443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>221.4639331821411</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>5.386777043275977</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>59.53469523443104</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>96.14715945003982</v>
+      </c>
+      <c r="F22">
         <v>52.68512378526619</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>324.3758838313173</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>4.808203999837795</v>
       </c>
-      <c r="H22" t="n">
-        <v>668.2546170762694</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>764.4017765263092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>345.7176250665107</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>9.426859825732958</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>85.99455978306703</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>87.20323764073376</v>
+      </c>
+      <c r="F23">
         <v>58.19868325116614</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>275.2280226447542</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>7.212305999756691</v>
       </c>
-      <c r="H23" t="n">
-        <v>781.7780565709877</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>868.9812942117215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>409.3062791485115</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>20.20041391228492</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>97.0195033449987</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>93.91117899771329</v>
+      </c>
+      <c r="F24">
         <v>77.1898325225993</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>267.8558434667697</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>8.414356999716139</v>
       </c>
-      <c r="H24" t="n">
-        <v>879.9862293948803</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>973.8974083925935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>265.0745426866551</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>13.46694260818994</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>101.4294807697714</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>49.19156995118315</v>
+      </c>
+      <c r="F25">
         <v>71.67627305669936</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>285.0575948820668</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>9.616407999675589</v>
       </c>
-      <c r="H25" t="n">
-        <v>746.3212420030582</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>795.5128119542414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>218.0530475225703</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>18.18037252105642</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>85.99455978306703</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F26">
         <v>88.21695145439921</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>233.4523406361753</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>8.414356999716139</v>
       </c>
-      <c r="H26" t="n">
-        <v>652.3116289169843</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>672.4354529879229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>217.3221434526621</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>20.87376104269441</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>63.94467265920368</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>24.59578497559158</v>
+      </c>
+      <c r="F27">
         <v>96.18098179403248</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>235.9097336955035</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>4.808203999837795</v>
       </c>
-      <c r="H27" t="n">
-        <v>639.0394966439339</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>663.6352816195256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>204.4095048842865</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>18.18037252105642</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>68.35465008397637</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>38.01166768955061</v>
+      </c>
+      <c r="F28">
         <v>71.67627305669936</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>184.3044794496121</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>9.616407999675589</v>
       </c>
-      <c r="H28" t="n">
-        <v>556.5416879953063</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>594.553355684857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>252.6491734982182</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>17.50702539064693</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>81.58458235829438</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>29.06774588024459</v>
+      </c>
+      <c r="F29">
         <v>80.25292111476594</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>233.4523406361753</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>7.212305999756691</v>
       </c>
-      <c r="H29" t="n">
-        <v>672.6583489978574</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>701.7260948781021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>220.2457597322943</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>23.56714956433239</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>77.17460493352169</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>26.83176542791808</v>
+      </c>
+      <c r="F30">
         <v>69.83841990139936</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>206.4210169835656</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>9.616407999675589</v>
       </c>
-      <c r="H30" t="n">
-        <v>606.863359114789</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>633.695124542707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>275.5508343553373</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>22.89380243392291</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>110.2494356193167</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>38.01166768955061</v>
+      </c>
+      <c r="F31">
         <v>64.93747815393274</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>184.3044794496121</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>2.404101999918897</v>
       </c>
-      <c r="H31" t="n">
-        <v>660.3401320120407</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>698.3517997015913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>342.7940087868784</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>17.50702539064693</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>147.7342437298844</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>53.66353085583616</v>
+      </c>
+      <c r="F32">
         <v>68.61318446453272</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>147.4435835596897</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>16.82871399943228</v>
       </c>
-      <c r="H32" t="n">
-        <v>740.9207599310644</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>794.5842907869005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>409.3062791485115</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>17.50702539064693</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>97.0195033449987</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>80.49529628375423</v>
+      </c>
+      <c r="F33">
         <v>45.33371116406627</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>113.0400807290954</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>4.808203999837795</v>
       </c>
-      <c r="H33" t="n">
-        <v>687.0148037771565</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>767.5101000609108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>424.4116299266114</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>9.426859825732958</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>66.14966137159001</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>100.6191203546928</v>
+      </c>
+      <c r="F34">
         <v>27.56779732949974</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>130.2418321443926</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>1.202050999959449</v>
       </c>
-      <c r="H34" t="n">
-        <v>658.9998315977861</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>759.6189519524788</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>284.8089525741727</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>10.77355408655195</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>33.07483068579501</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>82.73127673608074</v>
+      </c>
+      <c r="F35">
         <v>28.79303276636641</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>147.4435835596897</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>1.202050999959449</v>
       </c>
-      <c r="H35" t="n">
-        <v>506.0960046725352</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>588.8272814086159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>241.6856124495973</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>12.12024834737095</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>50.71474038488569</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>69.31539402212169</v>
+      </c>
+      <c r="F36">
         <v>23.27947330046646</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>189.2192655682684</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>3.606152999878346</v>
       </c>
-      <c r="H36" t="n">
-        <v>520.6254930504672</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>589.9408870725889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>206.1149477140719</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>12.79359547778044</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>46.30476296011302</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>31.3037263325711</v>
+      </c>
+      <c r="F37">
         <v>14.70282524239986</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>108.1252946104391</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>388.0414260048044</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>419.3451523373755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>85.75941086921198</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>10.77355408655195</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6.614966137159003</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>26.83176542791808</v>
+      </c>
+      <c r="F38">
         <v>11.0271189317999</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>71.2643987205167</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>185.4394487452395</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>212.2712141731576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>55.06143993307359</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>6.060124173685475</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>6.614966137159003</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>13.41588271395904</v>
+      </c>
+      <c r="F39">
         <v>5.51355946589995</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>68.80700566118854</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>142.0570953710065</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>155.4729780849656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>55.54870931301226</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>12.12024834737095</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>4.409977424772668</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>15.65186316628555</v>
+      </c>
+      <c r="F40">
         <v>9.189265776499916</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>100.7531154324546</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>182.0213162941104</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>197.673179460396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>26.31254651669002</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>11.44690121696145</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2.204988712386334</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F41">
         <v>9.801883494933245</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>103.2105084917828</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>152.9768284327538</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>164.1567306943864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>25.82527713675133</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>7.406818434504466</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>9.801883494933245</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>90.92354319514197</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>133.957522261331</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>21.43985271730299</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>6.060124173685475</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>2.204988712386334</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>6.707941356979521</v>
+      </c>
+      <c r="F43">
         <v>9.189265776499916</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>122.869652966408</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>161.7638843462827</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>168.4718257032623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>34.83976066561736</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.040082782456983</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>8.819954849545336</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>8.943921809306024</v>
+      </c>
+      <c r="F44">
         <v>15.3154429608332</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>169.5601210936431</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>232.575362352096</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>241.519284161402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>100.6211269573425</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.040082782456983</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>28.66485326102235</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>40.24764814187711</v>
+      </c>
+      <c r="F45">
         <v>27.56779732949974</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>356.3219936025834</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>1.202050999959449</v>
       </c>
-      <c r="H45" t="n">
-        <v>518.4179049328643</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>558.6655530747414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>228.0420698113137</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2.020041391228491</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>68.35465008397637</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>107.3270617116723</v>
+      </c>
+      <c r="F46">
         <v>58.19868325116614</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>393.1828894925059</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>3.606152999878346</v>
       </c>
-      <c r="H46" t="n">
-        <v>753.4044870300688</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>860.7315487417411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>330.6122742884109</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.386777043275977</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>66.14966137159001</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>89.43921809306028</v>
+      </c>
+      <c r="F47">
         <v>53.91035922213285</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>248.1966989921443</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>6.010254999797243</v>
       </c>
-      <c r="H47" t="n">
-        <v>710.2660259173512</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>799.7052440104115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>373.9792491029555</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>9.426859825732958</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>72.76462750874903</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>71.5513744744482</v>
+      </c>
+      <c r="F48">
         <v>61.87438956176609</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>223.6227683988626</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>2.404101999918897</v>
       </c>
-      <c r="H48" t="n">
-        <v>744.0719963979851</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>815.6233708724333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>268.4854283462262</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>11.44690121696145</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>83.78957107068069</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>49.19156995118315</v>
+      </c>
+      <c r="F49">
         <v>77.80245024103264</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>302.2593462973638</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>2.404101999918897</v>
       </c>
-      <c r="H49" t="n">
-        <v>746.1877991721838</v>
+      <c r="I49">
+        <v>795.3793691233669</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>208.0640252338268</v>
+        <v>399.9314497009485</v>
       </c>
       <c r="C2">
-        <v>18.18037252105642</v>
+        <v>34.94550646262941</v>
       </c>
       <c r="D2">
-        <v>85.99455978306703</v>
+        <v>165.2949322776319</v>
       </c>
       <c r="E2">
-        <v>17.88784361861205</v>
+        <v>34.3832203687094</v>
       </c>
       <c r="F2">
-        <v>78.41506795946596</v>
+        <v>150.7259689520274</v>
       </c>
       <c r="G2">
-        <v>213.79319616155</v>
+        <v>410.9438081907637</v>
       </c>
       <c r="H2">
-        <v>8.414356999716139</v>
+        <v>16.17370417310707</v>
       </c>
       <c r="I2">
-        <v>630.7494222772945</v>
+        <v>1212.398590125817</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>213.6676231031218</v>
+        <v>410.7024372221683</v>
       </c>
       <c r="C3">
-        <v>21.54710817310391</v>
+        <v>41.41689654830152</v>
       </c>
       <c r="D3">
-        <v>66.14966137159001</v>
+        <v>127.1499479058707</v>
       </c>
       <c r="E3">
-        <v>24.59578497559158</v>
+        <v>47.27692800697542</v>
       </c>
       <c r="F3">
-        <v>68.00056674609939</v>
+        <v>130.7076762005862</v>
       </c>
       <c r="G3">
-        <v>181.8470863902839</v>
+        <v>349.5384115645576</v>
       </c>
       <c r="H3">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I3">
-        <v>579.413983759669</v>
+        <v>1113.72388495122</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>215.8603353128459</v>
+        <v>414.9171714696021</v>
       </c>
       <c r="C4">
-        <v>25.58719095556089</v>
+        <v>49.18256465110806</v>
       </c>
       <c r="D4">
-        <v>70.55963879636269</v>
+        <v>135.6266110995954</v>
       </c>
       <c r="E4">
-        <v>24.59578497559158</v>
+        <v>47.27692800697542</v>
       </c>
       <c r="F4">
-        <v>64.93747815393274</v>
+        <v>124.8199430383977</v>
       </c>
       <c r="G4">
-        <v>201.5062308649093</v>
+        <v>387.3263479499152</v>
       </c>
       <c r="H4">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I4">
-        <v>605.450761059122</v>
+        <v>1163.770624550767</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>252.8928081881875</v>
+        <v>486.0993498707077</v>
       </c>
       <c r="C5">
-        <v>22.89380243392291</v>
+        <v>44.00545258257037</v>
       </c>
       <c r="D5">
-        <v>99.22449205738504</v>
+        <v>190.724921858806</v>
       </c>
       <c r="E5">
-        <v>33.5397067848976</v>
+        <v>64.46853819133013</v>
       </c>
       <c r="F5">
-        <v>84.54124514379923</v>
+        <v>162.5014352764045</v>
       </c>
       <c r="G5">
-        <v>211.3358031022219</v>
+        <v>406.2203161425942</v>
       </c>
       <c r="H5">
-        <v>9.616407999675589</v>
+        <v>18.48423334069379</v>
       </c>
       <c r="I5">
-        <v>714.0442657100898</v>
+        <v>1372.504247263107</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>247.7764796988312</v>
+        <v>476.2649699600289</v>
       </c>
       <c r="C6">
-        <v>19.52706678187542</v>
+        <v>37.53406249689826</v>
       </c>
       <c r="D6">
-        <v>88.19954849545337</v>
+        <v>169.5332638744943</v>
       </c>
       <c r="E6">
-        <v>29.06774588024459</v>
+        <v>55.87273309915278</v>
       </c>
       <c r="F6">
-        <v>82.09077427006592</v>
+        <v>157.7912487466537</v>
       </c>
       <c r="G6">
-        <v>213.79319616155</v>
+        <v>410.9438081907637</v>
       </c>
       <c r="H6">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I6">
-        <v>687.6671172877773</v>
+        <v>1321.803261373512</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>282.1289709845097</v>
+        <v>542.2958065031597</v>
       </c>
       <c r="C7">
-        <v>18.85371965146592</v>
+        <v>36.23978447976383</v>
       </c>
       <c r="D7">
-        <v>94.81451463261237</v>
+        <v>182.2482586650814</v>
       </c>
       <c r="E7">
-        <v>31.3037263325711</v>
+        <v>60.17063564524145</v>
       </c>
       <c r="F7">
-        <v>67.38794902766605</v>
+        <v>129.5301295681486</v>
       </c>
       <c r="G7">
-        <v>189.2192655682684</v>
+        <v>363.7088877090667</v>
       </c>
       <c r="H7">
-        <v>12.02050999959449</v>
+        <v>23.10529167586724</v>
       </c>
       <c r="I7">
-        <v>695.7286561966881</v>
+        <v>1337.298794246329</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>313.314211300587</v>
+        <v>602.2386935777748</v>
       </c>
       <c r="C8">
-        <v>14.81363686900893</v>
+        <v>28.4741163769573</v>
       </c>
       <c r="D8">
-        <v>130.0943340307937</v>
+        <v>250.061564214879</v>
       </c>
       <c r="E8">
-        <v>51.42755040350966</v>
+        <v>98.85175856003951</v>
       </c>
       <c r="F8">
-        <v>72.28889077513269</v>
+        <v>138.9505026276503</v>
       </c>
       <c r="G8">
-        <v>132.6992252037207</v>
+        <v>255.0685706011639</v>
       </c>
       <c r="H8">
-        <v>13.22256099955393</v>
+        <v>25.41582084345397</v>
       </c>
       <c r="I8">
-        <v>727.8604095823066</v>
+        <v>1399.061026801919</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>363.2593227443041</v>
+        <v>698.2409736582132</v>
       </c>
       <c r="C9">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D9">
-        <v>108.0444469069304</v>
+        <v>207.6782482462554</v>
       </c>
       <c r="E9">
-        <v>62.6074526651422</v>
+        <v>120.3412712904829</v>
       </c>
       <c r="F9">
-        <v>35.53182766913302</v>
+        <v>68.2977046813874</v>
       </c>
       <c r="G9">
-        <v>115.4974737884236</v>
+        <v>222.0041262639758</v>
       </c>
       <c r="H9">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I9">
-        <v>699.1755875995041</v>
+        <v>1343.924333050544</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>406.8699322488182</v>
+        <v>782.0673548016201</v>
       </c>
       <c r="C10">
-        <v>8.753512695323463</v>
+        <v>16.82561422274749</v>
       </c>
       <c r="D10">
-        <v>68.35465008397637</v>
+        <v>131.388279502733</v>
       </c>
       <c r="E10">
-        <v>91.67519854538682</v>
+        <v>176.2140043896356</v>
       </c>
       <c r="F10">
-        <v>23.89209101889978</v>
+        <v>45.92431866507084</v>
       </c>
       <c r="G10">
-        <v>130.2418321443926</v>
+        <v>250.3450785529941</v>
       </c>
       <c r="H10">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I10">
-        <v>732.1913187367162</v>
+        <v>1407.385708469975</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>282.8598750544178</v>
+        <v>543.7007179189709</v>
       </c>
       <c r="C11">
-        <v>11.44690121696145</v>
+        <v>22.00272629128519</v>
       </c>
       <c r="D11">
-        <v>35.27981939818135</v>
+        <v>67.81330554979768</v>
       </c>
       <c r="E11">
-        <v>89.43921809306028</v>
+        <v>171.916101843547</v>
       </c>
       <c r="F11">
-        <v>24.50470873733311</v>
+        <v>47.10186529750855</v>
       </c>
       <c r="G11">
-        <v>132.6992252037207</v>
+        <v>255.0685706011639</v>
       </c>
       <c r="H11">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I11">
-        <v>578.6338497035937</v>
+        <v>1112.224345837447</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>224.3875494617735</v>
+        <v>431.3078046540673</v>
       </c>
       <c r="C12">
-        <v>14.14028973859944</v>
+        <v>27.17983835982288</v>
       </c>
       <c r="D12">
-        <v>52.91972909727203</v>
+        <v>101.7199583246965</v>
       </c>
       <c r="E12">
-        <v>67.07941356979519</v>
+        <v>128.9370763826603</v>
       </c>
       <c r="F12">
-        <v>16.54067839769985</v>
+        <v>31.79375907581828</v>
       </c>
       <c r="G12">
-        <v>184.3044794496121</v>
+        <v>354.2619036127275</v>
       </c>
       <c r="I12">
-        <v>559.3721397147522</v>
+        <v>1075.200340409793</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>198.562272325022</v>
+        <v>381.6676012954015</v>
       </c>
       <c r="C13">
-        <v>14.81363686900893</v>
+        <v>28.4741163769573</v>
       </c>
       <c r="D13">
-        <v>39.68979682295402</v>
+        <v>76.28996874352241</v>
       </c>
       <c r="E13">
-        <v>22.35980452326507</v>
+        <v>42.97902546088675</v>
       </c>
       <c r="F13">
-        <v>17.15329611613318</v>
+        <v>32.97130570825599</v>
       </c>
       <c r="G13">
-        <v>108.1252946104391</v>
+        <v>207.8336501194669</v>
       </c>
       <c r="I13">
-        <v>400.7041012668222</v>
+        <v>770.2156677044907</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>125.9591347141551</v>
+        <v>242.113067324813</v>
       </c>
       <c r="C14">
-        <v>12.12024834737095</v>
+        <v>23.29700430841961</v>
       </c>
       <c r="D14">
-        <v>28.66485326102235</v>
+        <v>55.09831075921063</v>
       </c>
       <c r="E14">
-        <v>33.5397067848976</v>
+        <v>64.46853819133013</v>
       </c>
       <c r="F14">
-        <v>14.09020752396654</v>
+        <v>27.08357254606742</v>
       </c>
       <c r="G14">
-        <v>125.3270460257362</v>
+        <v>240.8980944566547</v>
       </c>
       <c r="I14">
-        <v>339.7011966571487</v>
+        <v>652.9585875864955</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>79.91217830994751</v>
+        <v>153.6036481287015</v>
       </c>
       <c r="C15">
-        <v>12.12024834737095</v>
+        <v>23.29700430841961</v>
       </c>
       <c r="D15">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E15">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F15">
-        <v>6.738794902766606</v>
+        <v>12.95301295681485</v>
       </c>
       <c r="G15">
-        <v>90.92354319514197</v>
+        <v>174.7692057822788</v>
       </c>
       <c r="I15">
-        <v>216.4335549633246</v>
+        <v>416.0189888815999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>39.22518508506571</v>
+        <v>75.39691264853946</v>
       </c>
       <c r="C16">
-        <v>11.44690121696145</v>
+        <v>22.00272629128519</v>
       </c>
       <c r="D16">
-        <v>2.204988712386334</v>
+        <v>4.238331596862355</v>
       </c>
       <c r="E16">
-        <v>15.65186316628555</v>
+        <v>30.08531782262072</v>
       </c>
       <c r="F16">
-        <v>12.25235436866656</v>
+        <v>23.55093264875428</v>
       </c>
       <c r="G16">
-        <v>86.00875707648564</v>
+        <v>165.3222216859394</v>
       </c>
       <c r="H16">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I16">
-        <v>167.9921006258107</v>
+        <v>322.9069718615881</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>27.77435465650613</v>
+        <v>53.38663380082921</v>
       </c>
       <c r="C17">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D17">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E17">
-        <v>8.943921809306024</v>
+        <v>17.1916101843547</v>
       </c>
       <c r="F17">
-        <v>12.86497208709988</v>
+        <v>24.72847928119199</v>
       </c>
       <c r="G17">
-        <v>83.55136401715748</v>
+        <v>160.5987296377698</v>
       </c>
       <c r="I17">
-        <v>143.6047141685277</v>
+        <v>276.0306182520802</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>19.24714050757882</v>
+        <v>36.99600061636409</v>
       </c>
       <c r="C18">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D18">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="F18">
-        <v>11.0271189317999</v>
+        <v>21.19583938387885</v>
       </c>
       <c r="G18">
-        <v>73.72179177984484</v>
+        <v>141.704761445091</v>
       </c>
       <c r="I18">
-        <v>114.6511001388395</v>
+        <v>220.3772643387275</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>17.54169767779335</v>
+        <v>33.71787397947107</v>
       </c>
       <c r="C19">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D19">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E19">
-        <v>4.471960904653012</v>
+        <v>8.595805092177351</v>
       </c>
       <c r="F19">
-        <v>10.41450121336657</v>
+        <v>20.01829275144114</v>
       </c>
       <c r="G19">
-        <v>113.0400807290954</v>
+        <v>217.2806342158062</v>
       </c>
       <c r="I19">
-        <v>158.8166779661623</v>
+        <v>305.270381000827</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>30.21070155619966</v>
+        <v>58.06967185353349</v>
       </c>
       <c r="C20">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D20">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E20">
-        <v>8.943921809306024</v>
+        <v>17.1916101843547</v>
       </c>
       <c r="F20">
-        <v>15.92806067926652</v>
+        <v>30.61621244338055</v>
       </c>
       <c r="G20">
-        <v>206.4210169835656</v>
+        <v>396.7733320462546</v>
       </c>
       <c r="H20">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I20">
-        <v>276.0541894695512</v>
+        <v>530.6191306570413</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>99.15931881752633</v>
+        <v>190.5996487450655</v>
       </c>
       <c r="C21">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D21">
-        <v>22.04988712386334</v>
+        <v>42.38331596862356</v>
       </c>
       <c r="E21">
-        <v>44.71960904653014</v>
+        <v>85.95805092177349</v>
       </c>
       <c r="F21">
-        <v>18.99114927143317</v>
+        <v>36.50394560556914</v>
       </c>
       <c r="G21">
-        <v>299.8019532380356</v>
+        <v>576.2660298767032</v>
       </c>
       <c r="H21">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I21">
-        <v>492.657439801443</v>
+        <v>946.9643004566659</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>221.4639331821411</v>
+        <v>425.6881589908222</v>
       </c>
       <c r="C22">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D22">
-        <v>59.53469523443104</v>
+        <v>114.4349531152836</v>
       </c>
       <c r="E22">
-        <v>96.14715945003982</v>
+        <v>184.809809481813</v>
       </c>
       <c r="F22">
-        <v>52.68512378526619</v>
+        <v>101.2690103896434</v>
       </c>
       <c r="G22">
-        <v>324.3758838313173</v>
+        <v>623.5009503584004</v>
       </c>
       <c r="H22">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I22">
-        <v>764.4017765263092</v>
+        <v>1469.299223143385</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>345.7176250665107</v>
+        <v>664.5230996787419</v>
       </c>
       <c r="C23">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D23">
-        <v>85.99455978306703</v>
+        <v>165.2949322776319</v>
       </c>
       <c r="E23">
-        <v>87.20323764073376</v>
+        <v>167.6181992974584</v>
       </c>
       <c r="F23">
-        <v>58.19868325116614</v>
+        <v>111.8669300815828</v>
       </c>
       <c r="G23">
-        <v>275.2280226447542</v>
+        <v>529.0311093950063</v>
       </c>
       <c r="H23">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I23">
-        <v>868.9812942117215</v>
+        <v>1670.317337975823</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>409.3062791485115</v>
+        <v>786.7503928543248</v>
       </c>
       <c r="C24">
-        <v>20.20041391228492</v>
+        <v>38.82834051403268</v>
       </c>
       <c r="D24">
-        <v>97.0195033449987</v>
+        <v>186.4865902619436</v>
       </c>
       <c r="E24">
-        <v>93.91117899771329</v>
+        <v>180.5119069357244</v>
       </c>
       <c r="F24">
-        <v>77.1898325225993</v>
+        <v>148.3708756871519</v>
       </c>
       <c r="G24">
-        <v>267.8558434667697</v>
+        <v>514.8606332504971</v>
       </c>
       <c r="H24">
-        <v>8.414356999716139</v>
+        <v>16.17370417310707</v>
       </c>
       <c r="I24">
-        <v>973.8974083925935</v>
+        <v>1871.982443676782</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>265.0745426866551</v>
+        <v>509.5145401342293</v>
       </c>
       <c r="C25">
-        <v>13.46694260818994</v>
+        <v>25.88556034268846</v>
       </c>
       <c r="D25">
-        <v>101.4294807697714</v>
+        <v>194.9632534556684</v>
       </c>
       <c r="E25">
-        <v>49.19156995118315</v>
+        <v>94.55385601395083</v>
       </c>
       <c r="F25">
-        <v>71.67627305669936</v>
+        <v>137.7729559952125</v>
       </c>
       <c r="G25">
-        <v>285.0575948820668</v>
+        <v>547.9250775876851</v>
       </c>
       <c r="H25">
-        <v>9.616407999675589</v>
+        <v>18.48423334069379</v>
       </c>
       <c r="I25">
-        <v>795.5128119542414</v>
+        <v>1529.099476870128</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>218.0530475225703</v>
+        <v>419.1319057170361</v>
       </c>
       <c r="C26">
-        <v>18.18037252105642</v>
+        <v>34.94550646262941</v>
       </c>
       <c r="D26">
-        <v>85.99455978306703</v>
+        <v>165.2949322776319</v>
       </c>
       <c r="E26">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F26">
-        <v>88.21695145439921</v>
+        <v>169.5667150710308</v>
       </c>
       <c r="G26">
-        <v>233.4523406361753</v>
+        <v>448.7317445761214</v>
       </c>
       <c r="H26">
-        <v>8.414356999716139</v>
+        <v>16.17370417310707</v>
       </c>
       <c r="I26">
-        <v>672.4354529879229</v>
+        <v>1292.525631192355</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>217.3221434526621</v>
+        <v>417.7269943012247</v>
       </c>
       <c r="C27">
-        <v>20.87376104269441</v>
+        <v>40.12261853116711</v>
       </c>
       <c r="D27">
-        <v>63.94467265920368</v>
+        <v>122.9116163090083</v>
       </c>
       <c r="E27">
-        <v>24.59578497559158</v>
+        <v>47.27692800697542</v>
       </c>
       <c r="F27">
-        <v>96.18098179403248</v>
+        <v>184.8748212927211</v>
       </c>
       <c r="G27">
-        <v>235.9097336955035</v>
+        <v>453.4552366242912</v>
       </c>
       <c r="H27">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I27">
-        <v>663.6352816195256</v>
+        <v>1275.610331735734</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>204.4095048842865</v>
+        <v>392.906892621892</v>
       </c>
       <c r="C28">
-        <v>18.18037252105642</v>
+        <v>34.94550646262941</v>
       </c>
       <c r="D28">
-        <v>68.35465008397637</v>
+        <v>131.388279502733</v>
       </c>
       <c r="E28">
-        <v>38.01166768955061</v>
+        <v>73.06434328350745</v>
       </c>
       <c r="F28">
-        <v>71.67627305669936</v>
+        <v>137.7729559952125</v>
       </c>
       <c r="G28">
-        <v>184.3044794496121</v>
+        <v>354.2619036127275</v>
       </c>
       <c r="H28">
-        <v>9.616407999675589</v>
+        <v>18.48423334069379</v>
       </c>
       <c r="I28">
-        <v>594.553355684857</v>
+        <v>1142.824114819396</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>252.6491734982182</v>
+        <v>485.6310460654374</v>
       </c>
       <c r="C29">
-        <v>17.50702539064693</v>
+        <v>33.65122844549499</v>
       </c>
       <c r="D29">
-        <v>81.58458235829438</v>
+        <v>156.8182690839071</v>
       </c>
       <c r="E29">
-        <v>29.06774588024459</v>
+        <v>55.87273309915278</v>
       </c>
       <c r="F29">
-        <v>80.25292111476594</v>
+        <v>154.2586088493405</v>
       </c>
       <c r="G29">
-        <v>233.4523406361753</v>
+        <v>448.7317445761214</v>
       </c>
       <c r="H29">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I29">
-        <v>701.7260948781021</v>
+        <v>1348.826805124974</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>220.2457597322943</v>
+        <v>423.3466399644701</v>
       </c>
       <c r="C30">
-        <v>23.56714956433239</v>
+        <v>45.29973059970479</v>
       </c>
       <c r="D30">
-        <v>77.17460493352169</v>
+        <v>148.3416058901824</v>
       </c>
       <c r="E30">
-        <v>26.83176542791808</v>
+        <v>51.57483055306409</v>
       </c>
       <c r="F30">
-        <v>69.83841990139936</v>
+        <v>134.2403160978994</v>
       </c>
       <c r="G30">
-        <v>206.4210169835656</v>
+        <v>396.7733320462546</v>
       </c>
       <c r="H30">
-        <v>9.616407999675589</v>
+        <v>18.48423334069379</v>
       </c>
       <c r="I30">
-        <v>633.695124542707</v>
+        <v>1218.060688492269</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>275.5508343553373</v>
+        <v>529.6516037608577</v>
       </c>
       <c r="C31">
-        <v>22.89380243392291</v>
+        <v>44.00545258257037</v>
       </c>
       <c r="D31">
-        <v>110.2494356193167</v>
+        <v>211.9165798431178</v>
       </c>
       <c r="E31">
-        <v>38.01166768955061</v>
+        <v>73.06434328350745</v>
       </c>
       <c r="F31">
-        <v>64.93747815393274</v>
+        <v>124.8199430383977</v>
       </c>
       <c r="G31">
-        <v>184.3044794496121</v>
+        <v>354.2619036127275</v>
       </c>
       <c r="H31">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I31">
-        <v>698.3517997015913</v>
+        <v>1342.340884456352</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>342.7940087868784</v>
+        <v>658.903454015497</v>
       </c>
       <c r="C32">
-        <v>17.50702539064693</v>
+        <v>33.65122844549499</v>
       </c>
       <c r="D32">
-        <v>147.7342437298844</v>
+        <v>283.9682169897779</v>
       </c>
       <c r="E32">
-        <v>53.66353085583616</v>
+        <v>103.1496611061282</v>
       </c>
       <c r="F32">
-        <v>68.61318446453272</v>
+        <v>131.885222833024</v>
       </c>
       <c r="G32">
-        <v>147.4435835596897</v>
+        <v>283.409522890182</v>
       </c>
       <c r="H32">
-        <v>16.82871399943228</v>
+        <v>32.34740834621414</v>
       </c>
       <c r="I32">
-        <v>794.5842907869005</v>
+        <v>1527.314714626318</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>409.3062791485115</v>
+        <v>786.7503928543248</v>
       </c>
       <c r="C33">
-        <v>17.50702539064693</v>
+        <v>33.65122844549499</v>
       </c>
       <c r="D33">
-        <v>97.0195033449987</v>
+        <v>186.4865902619436</v>
       </c>
       <c r="E33">
-        <v>80.49529628375423</v>
+        <v>154.7244916591924</v>
       </c>
       <c r="F33">
-        <v>45.33371116406627</v>
+        <v>87.13845080039083</v>
       </c>
       <c r="G33">
-        <v>113.0400807290954</v>
+        <v>217.2806342158062</v>
       </c>
       <c r="H33">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I33">
-        <v>767.5101000609108</v>
+        <v>1475.2739049075</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>424.4116299266114</v>
+        <v>815.7852287810912</v>
       </c>
       <c r="C34">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D34">
-        <v>66.14966137159001</v>
+        <v>127.1499479058707</v>
       </c>
       <c r="E34">
-        <v>100.6191203546928</v>
+        <v>193.4056145739903</v>
       </c>
       <c r="F34">
-        <v>27.56779732949974</v>
+        <v>52.98959845969713</v>
       </c>
       <c r="G34">
-        <v>130.2418321443926</v>
+        <v>250.3450785529941</v>
       </c>
       <c r="H34">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I34">
-        <v>759.6189519524788</v>
+        <v>1460.105889681112</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>284.8089525741727</v>
+        <v>547.4471483611344</v>
       </c>
       <c r="C35">
-        <v>10.77355408655195</v>
+        <v>20.70844827415076</v>
       </c>
       <c r="D35">
-        <v>33.07483068579501</v>
+        <v>63.57497395293534</v>
       </c>
       <c r="E35">
-        <v>82.73127673608074</v>
+        <v>159.022394205281</v>
       </c>
       <c r="F35">
-        <v>28.79303276636641</v>
+        <v>55.34469172457256</v>
       </c>
       <c r="G35">
-        <v>147.4435835596897</v>
+        <v>283.409522890182</v>
       </c>
       <c r="H35">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I35">
-        <v>588.8272814086159</v>
+        <v>1131.817708575843</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>241.6856124495973</v>
+        <v>464.5573748282679</v>
       </c>
       <c r="C36">
-        <v>12.12024834737095</v>
+        <v>23.29700430841961</v>
       </c>
       <c r="D36">
-        <v>50.71474038488569</v>
+        <v>97.48162672783418</v>
       </c>
       <c r="E36">
-        <v>69.31539402212169</v>
+        <v>133.2349789287489</v>
       </c>
       <c r="F36">
-        <v>23.27947330046646</v>
+        <v>44.74677203263313</v>
       </c>
       <c r="G36">
-        <v>189.2192655682684</v>
+        <v>363.7088877090667</v>
       </c>
       <c r="H36">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I36">
-        <v>589.9408870725889</v>
+        <v>1133.958232037731</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>206.1149477140719</v>
+        <v>396.1850192587851</v>
       </c>
       <c r="C37">
-        <v>12.79359547778044</v>
+        <v>24.59128232555403</v>
       </c>
       <c r="D37">
-        <v>46.30476296011302</v>
+        <v>89.00496353410944</v>
       </c>
       <c r="E37">
-        <v>31.3037263325711</v>
+        <v>60.17063564524145</v>
       </c>
       <c r="F37">
-        <v>14.70282524239986</v>
+        <v>28.26111917850513</v>
       </c>
       <c r="G37">
-        <v>108.1252946104391</v>
+        <v>207.8336501194669</v>
       </c>
       <c r="I37">
-        <v>419.3451523373755</v>
+        <v>806.046670061662</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>85.75941086921198</v>
+        <v>164.8429394551919</v>
       </c>
       <c r="C38">
-        <v>10.77355408655195</v>
+        <v>20.70844827415076</v>
       </c>
       <c r="D38">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E38">
-        <v>26.83176542791808</v>
+        <v>51.57483055306409</v>
       </c>
       <c r="F38">
-        <v>11.0271189317999</v>
+        <v>21.19583938387885</v>
       </c>
       <c r="G38">
-        <v>71.2643987205167</v>
+        <v>136.9812693969213</v>
       </c>
       <c r="I38">
-        <v>212.2712141731576</v>
+        <v>408.0183218537939</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>55.06143993307359</v>
+        <v>105.8366599911175</v>
       </c>
       <c r="C39">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D39">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E39">
-        <v>13.41588271395904</v>
+        <v>25.78741527653204</v>
       </c>
       <c r="F39">
-        <v>5.51355946589995</v>
+        <v>10.59791969193942</v>
       </c>
       <c r="G39">
-        <v>68.80700566118854</v>
+        <v>132.2577773487516</v>
       </c>
       <c r="I39">
-        <v>155.4729780849656</v>
+        <v>298.8432692531375</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>55.54870931301226</v>
+        <v>106.7732676016584</v>
       </c>
       <c r="C40">
-        <v>12.12024834737095</v>
+        <v>23.29700430841961</v>
       </c>
       <c r="D40">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E40">
-        <v>15.65186316628555</v>
+        <v>30.08531782262072</v>
       </c>
       <c r="F40">
-        <v>9.189265776499916</v>
+        <v>17.66319948656571</v>
       </c>
       <c r="G40">
-        <v>100.7531154324546</v>
+        <v>193.6631739749576</v>
       </c>
       <c r="I40">
-        <v>197.673179460396</v>
+        <v>379.9586263879468</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>26.31254651669002</v>
+        <v>50.5768109692066</v>
       </c>
       <c r="C41">
-        <v>11.44690121696145</v>
+        <v>22.00272629128519</v>
       </c>
       <c r="D41">
-        <v>2.204988712386334</v>
+        <v>4.238331596862355</v>
       </c>
       <c r="E41">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F41">
-        <v>9.801883494933245</v>
+        <v>18.84074611900343</v>
       </c>
       <c r="G41">
-        <v>103.2105084917828</v>
+        <v>198.3866660231273</v>
       </c>
       <c r="I41">
-        <v>164.1567306943864</v>
+        <v>315.5347937299282</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>25.82527713675133</v>
+        <v>49.64020335866569</v>
       </c>
       <c r="C42">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="F42">
-        <v>9.801883494933245</v>
+        <v>18.84074611900343</v>
       </c>
       <c r="G42">
-        <v>90.92354319514197</v>
+        <v>174.7692057822788</v>
       </c>
       <c r="I42">
-        <v>133.957522261331</v>
+        <v>257.4872134484266</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>21.43985271730299</v>
+        <v>41.21073486379797</v>
       </c>
       <c r="C43">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D43">
-        <v>2.204988712386334</v>
+        <v>4.238331596862355</v>
       </c>
       <c r="E43">
-        <v>6.707941356979521</v>
+        <v>12.89370763826602</v>
       </c>
       <c r="F43">
-        <v>9.189265776499916</v>
+        <v>17.66319948656571</v>
       </c>
       <c r="G43">
-        <v>122.869652966408</v>
+        <v>236.1746024084849</v>
       </c>
       <c r="I43">
-        <v>168.4718257032623</v>
+        <v>323.8290781481867</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>34.83976066561736</v>
+        <v>66.96744415367169</v>
       </c>
       <c r="C44">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D44">
-        <v>8.819954849545336</v>
+        <v>16.95332638744942</v>
       </c>
       <c r="E44">
-        <v>8.943921809306024</v>
+        <v>17.1916101843547</v>
       </c>
       <c r="F44">
-        <v>15.3154429608332</v>
+        <v>29.43866581094285</v>
       </c>
       <c r="G44">
-        <v>169.5601210936431</v>
+        <v>325.9209513237093</v>
       </c>
       <c r="I44">
-        <v>241.519284161402</v>
+        <v>464.2376659629344</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>100.6211269573425</v>
+        <v>193.4094715766881</v>
       </c>
       <c r="C45">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D45">
-        <v>28.66485326102235</v>
+        <v>55.09831075921063</v>
       </c>
       <c r="E45">
-        <v>40.24764814187711</v>
+        <v>77.36224582959618</v>
       </c>
       <c r="F45">
-        <v>27.56779732949974</v>
+        <v>52.98959845969713</v>
       </c>
       <c r="G45">
-        <v>356.3219936025834</v>
+        <v>684.9063469846063</v>
       </c>
       <c r="H45">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I45">
-        <v>558.6655530747414</v>
+        <v>1073.842170880192</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>228.0420698113137</v>
+        <v>438.3323617331239</v>
       </c>
       <c r="C46">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D46">
-        <v>68.35465008397637</v>
+        <v>131.388279502733</v>
       </c>
       <c r="E46">
-        <v>107.3270617116723</v>
+        <v>206.2993222122564</v>
       </c>
       <c r="F46">
-        <v>58.19868325116614</v>
+        <v>111.8669300815828</v>
       </c>
       <c r="G46">
-        <v>393.1828894925059</v>
+        <v>755.7587277071518</v>
       </c>
       <c r="H46">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I46">
-        <v>860.7315487417411</v>
+        <v>1654.460042791011</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>330.6122742884109</v>
+        <v>635.4882637519755</v>
       </c>
       <c r="C47">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D47">
-        <v>66.14966137159001</v>
+        <v>127.1499479058707</v>
       </c>
       <c r="E47">
-        <v>89.43921809306028</v>
+        <v>171.916101843547</v>
       </c>
       <c r="F47">
-        <v>53.91035922213285</v>
+        <v>103.6241036545188</v>
       </c>
       <c r="G47">
-        <v>248.1966989921443</v>
+        <v>477.0726968651397</v>
       </c>
       <c r="H47">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I47">
-        <v>799.7052440104115</v>
+        <v>1537.157983996061</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>373.9792491029555</v>
+        <v>718.8463410901122</v>
       </c>
       <c r="C48">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D48">
-        <v>72.76462750874903</v>
+        <v>139.8649426964577</v>
       </c>
       <c r="E48">
-        <v>71.5513744744482</v>
+        <v>137.5328814748376</v>
       </c>
       <c r="F48">
-        <v>61.87438956176609</v>
+        <v>118.9322098762091</v>
       </c>
       <c r="G48">
-        <v>223.6227683988626</v>
+        <v>429.8377763834426</v>
       </c>
       <c r="H48">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I48">
-        <v>815.6233708724333</v>
+        <v>1567.755102096115</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>268.4854283462262</v>
+        <v>516.0707934080154</v>
       </c>
       <c r="C49">
-        <v>11.44690121696145</v>
+        <v>22.00272629128519</v>
       </c>
       <c r="D49">
-        <v>83.78957107068069</v>
+        <v>161.0566006807695</v>
       </c>
       <c r="E49">
-        <v>49.19156995118315</v>
+        <v>94.55385601395083</v>
       </c>
       <c r="F49">
-        <v>77.80245024103264</v>
+        <v>149.5484223195897</v>
       </c>
       <c r="G49">
-        <v>302.2593462973638</v>
+        <v>580.989521924873</v>
       </c>
       <c r="H49">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I49">
-        <v>795.3793691233669</v>
+        <v>1528.842978973657</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>160.7201153003812</v>
+        <v>93.69110597355555</v>
       </c>
       <c r="C2">
-        <v>14.04352128872023</v>
+        <v>8.186610859781096</v>
       </c>
       <c r="D2">
-        <v>66.42693540129132</v>
+        <v>38.72329877656673</v>
       </c>
       <c r="E2">
-        <v>13.81755584910751</v>
+        <v>8.054885270177405</v>
       </c>
       <c r="F2">
-        <v>60.57211836389886</v>
+        <v>35.310258147017</v>
       </c>
       <c r="G2">
-        <v>165.1456425439519</v>
+        <v>96.27094821166806</v>
       </c>
       <c r="H2">
-        <v>6.499712891996301</v>
+        <v>3.788979918435052</v>
       </c>
       <c r="I2">
-        <v>487.2256016393472</v>
+        <v>284.0260871572009</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>165.0486429958247</v>
+        <v>96.21440273865133</v>
       </c>
       <c r="C3">
-        <v>16.64417337922398</v>
+        <v>9.702649907888706</v>
       </c>
       <c r="D3">
-        <v>51.09764261637793</v>
+        <v>29.78715290505132</v>
       </c>
       <c r="E3">
-        <v>18.99913929252283</v>
+        <v>11.07546724649393</v>
       </c>
       <c r="F3">
-        <v>52.52738389369353</v>
+        <v>30.6206144868663</v>
       </c>
       <c r="G3">
-        <v>140.4687074511774</v>
+        <v>81.88563411107397</v>
       </c>
       <c r="H3">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I3">
-        <v>447.5712808682474</v>
+        <v>260.9097699324977</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>166.7424147027374</v>
+        <v>97.20177973368874</v>
       </c>
       <c r="C4">
-        <v>19.76495588782847</v>
+        <v>11.52189676561784</v>
       </c>
       <c r="D4">
-        <v>54.50415212413647</v>
+        <v>31.77296309872141</v>
       </c>
       <c r="E4">
-        <v>18.99913929252283</v>
+        <v>11.07546724649393</v>
       </c>
       <c r="F4">
-        <v>50.16128552010375</v>
+        <v>29.24130752799846</v>
       </c>
       <c r="G4">
-        <v>155.6545136621155</v>
+        <v>90.73813509605493</v>
       </c>
       <c r="H4">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I4">
-        <v>467.6835220157291</v>
+        <v>272.6341151595567</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>195.3483368639293</v>
+        <v>113.8774800943215</v>
       </c>
       <c r="C5">
-        <v>17.68443421542548</v>
+        <v>10.30906552713175</v>
       </c>
       <c r="D5">
-        <v>76.6464639245669</v>
+        <v>44.68072935757699</v>
       </c>
       <c r="E5">
-        <v>25.9079172170766</v>
+        <v>15.10290988158264</v>
       </c>
       <c r="F5">
-        <v>65.30431511107847</v>
+        <v>38.06887206475271</v>
       </c>
       <c r="G5">
-        <v>163.2474167675846</v>
+        <v>95.1643855885454</v>
       </c>
       <c r="H5">
-        <v>7.428243305138628</v>
+        <v>4.330262763925774</v>
       </c>
       <c r="I5">
-        <v>551.5671274047999</v>
+        <v>321.5337052778368</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>191.3962028811331</v>
+        <v>111.5736004392341</v>
       </c>
       <c r="C6">
-        <v>15.08378212492173</v>
+        <v>8.793026479024141</v>
       </c>
       <c r="D6">
-        <v>68.13019015517057</v>
+        <v>39.71620387340177</v>
       </c>
       <c r="E6">
-        <v>22.45352825479972</v>
+        <v>13.08918856403828</v>
       </c>
       <c r="F6">
-        <v>63.41143641220662</v>
+        <v>36.96542649765843</v>
       </c>
       <c r="G6">
-        <v>165.1456425439519</v>
+        <v>96.27094821166806</v>
       </c>
       <c r="H6">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I6">
-        <v>531.1919648510376</v>
+        <v>309.6560911379691</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>217.9319596227651</v>
+        <v>127.0425066948212</v>
       </c>
       <c r="C7">
-        <v>14.56365170682098</v>
+        <v>8.489818669402622</v>
       </c>
       <c r="D7">
-        <v>73.23995441680836</v>
+        <v>42.6949191639069</v>
       </c>
       <c r="E7">
-        <v>24.18072273593816</v>
+        <v>14.09604922281046</v>
       </c>
       <c r="F7">
-        <v>52.05416421897559</v>
+        <v>30.34475309509274</v>
       </c>
       <c r="G7">
-        <v>146.1633847802792</v>
+        <v>85.20532198044182</v>
       </c>
       <c r="H7">
-        <v>9.285304131423285</v>
+        <v>5.412828454907217</v>
       </c>
       <c r="I7">
-        <v>537.4191416130107</v>
+        <v>313.286197281383</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>242.0211572321899</v>
+        <v>141.0852017353541</v>
       </c>
       <c r="C8">
-        <v>11.44286919821649</v>
+        <v>6.670571811673486</v>
       </c>
       <c r="D8">
-        <v>100.4920304788766</v>
+        <v>58.58140071326762</v>
       </c>
       <c r="E8">
-        <v>39.72547306618411</v>
+        <v>23.15779515176004</v>
       </c>
       <c r="F8">
-        <v>55.83992161671926</v>
+        <v>32.55164422928131</v>
       </c>
       <c r="G8">
-        <v>102.5041919238321</v>
+        <v>59.75438164862152</v>
       </c>
       <c r="H8">
-        <v>10.21383454456561</v>
+        <v>5.95411130039794</v>
       </c>
       <c r="I8">
-        <v>562.2394780605841</v>
+        <v>327.755106590356</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>280.6015127785344</v>
+        <v>163.5754555112076</v>
       </c>
       <c r="C9">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D9">
-        <v>83.45948294008396</v>
+        <v>48.65234974491717</v>
       </c>
       <c r="E9">
-        <v>48.36144547187632</v>
+        <v>28.19209844562092</v>
       </c>
       <c r="F9">
-        <v>27.44674113364167</v>
+        <v>15.99996072286708</v>
       </c>
       <c r="G9">
-        <v>89.21661148926134</v>
+        <v>52.00844328676318</v>
       </c>
       <c r="H9">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I9">
-        <v>540.0817413193776</v>
+        <v>314.8383484280401</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>314.2887500604643</v>
+        <v>183.2132868569529</v>
       </c>
       <c r="C10">
-        <v>6.76169543530974</v>
+        <v>3.941701525079786</v>
       </c>
       <c r="D10">
-        <v>52.80089737025722</v>
+        <v>30.78005800188637</v>
       </c>
       <c r="E10">
-        <v>70.81497372667603</v>
+        <v>41.28128700965918</v>
       </c>
       <c r="F10">
-        <v>18.45556731400043</v>
+        <v>10.75859427916924</v>
       </c>
       <c r="G10">
-        <v>100.6059661474649</v>
+        <v>58.64781902549893</v>
       </c>
       <c r="H10">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I10">
-        <v>565.5849108804573</v>
+        <v>329.7053123892279</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>218.496550191736</v>
+        <v>127.3716323598337</v>
       </c>
       <c r="C11">
-        <v>8.84221710771274</v>
+        <v>5.154532763565875</v>
       </c>
       <c r="D11">
-        <v>27.25207606206823</v>
+        <v>15.8864815493607</v>
       </c>
       <c r="E11">
-        <v>69.08777924553758</v>
+        <v>40.27442635088701</v>
       </c>
       <c r="F11">
-        <v>18.92878698871839</v>
+        <v>11.03445567094281</v>
       </c>
       <c r="G11">
-        <v>102.5041919238321</v>
+        <v>59.75438164862152</v>
       </c>
       <c r="H11">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I11">
-        <v>446.9686623458898</v>
+        <v>260.558476034193</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>173.3293046740645</v>
+        <v>101.0415791588345</v>
       </c>
       <c r="C12">
-        <v>10.92273878011573</v>
+        <v>6.367364002051964</v>
       </c>
       <c r="D12">
-        <v>40.87811409310234</v>
+        <v>23.82972232404106</v>
       </c>
       <c r="E12">
-        <v>51.8158344341532</v>
+        <v>30.20581976316528</v>
       </c>
       <c r="F12">
-        <v>12.77693121738491</v>
+        <v>7.448257577886398</v>
       </c>
       <c r="G12">
-        <v>142.3669332275447</v>
+        <v>82.99219673419655</v>
       </c>
       <c r="I12">
-        <v>432.0898564263654</v>
+        <v>251.8849395601757</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>153.3804379037595</v>
+        <v>89.41247232839315</v>
       </c>
       <c r="C13">
-        <v>11.44286919821649</v>
+        <v>6.670571811673486</v>
       </c>
       <c r="D13">
-        <v>30.65858556982676</v>
+        <v>17.8722917430308</v>
       </c>
       <c r="E13">
-        <v>17.27194481138439</v>
+        <v>10.06860658772175</v>
       </c>
       <c r="F13">
-        <v>13.25015089210287</v>
+        <v>7.724118969659971</v>
       </c>
       <c r="G13">
-        <v>83.52193416015955</v>
+        <v>48.68875541739533</v>
       </c>
       <c r="I13">
-        <v>309.5259225354496</v>
+        <v>180.4368168578745</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>97.2977747193174</v>
+        <v>56.71932293715249</v>
       </c>
       <c r="C14">
-        <v>9.362347525813487</v>
+        <v>5.457740573187397</v>
       </c>
       <c r="D14">
-        <v>22.14231180043043</v>
+        <v>12.90776625885557</v>
       </c>
       <c r="E14">
-        <v>25.9079172170766</v>
+        <v>15.10290988158264</v>
       </c>
       <c r="F14">
-        <v>10.88405251851308</v>
+        <v>6.344812010792118</v>
       </c>
       <c r="G14">
-        <v>96.8095145947304</v>
+        <v>56.43469377925369</v>
       </c>
       <c r="I14">
-        <v>262.4039183758814</v>
+        <v>152.9672454408239</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>61.72856887415107</v>
+        <v>35.98440604136557</v>
       </c>
       <c r="C15">
-        <v>9.362347525813487</v>
+        <v>5.457740573187397</v>
       </c>
       <c r="D15">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E15">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F15">
-        <v>5.205416421897559</v>
+        <v>3.034475309509275</v>
       </c>
       <c r="G15">
-        <v>70.2343537255887</v>
+        <v>40.94281705553698</v>
       </c>
       <c r="I15">
-        <v>167.1852011393346</v>
+        <v>97.45990019905395</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>30.29969386810463</v>
+        <v>17.6630773556703</v>
       </c>
       <c r="C16">
-        <v>8.84221710771274</v>
+        <v>5.154532763565875</v>
       </c>
       <c r="D16">
-        <v>1.703254753879265</v>
+        <v>0.9929050968350439</v>
       </c>
       <c r="E16">
-        <v>12.09036136796908</v>
+        <v>7.04802461140523</v>
       </c>
       <c r="F16">
-        <v>9.464393494359197</v>
+        <v>5.517227835471407</v>
       </c>
       <c r="G16">
-        <v>66.43790217285419</v>
+        <v>38.72969180929175</v>
       </c>
       <c r="H16">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I16">
-        <v>129.7663531780214</v>
+        <v>75.64674231773034</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>21.45444162089397</v>
+        <v>12.50677527047463</v>
       </c>
       <c r="C17">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D17">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E17">
-        <v>6.908777924553756</v>
+        <v>4.027442635088702</v>
       </c>
       <c r="F17">
-        <v>9.937613169077155</v>
+        <v>5.793089227244978</v>
       </c>
       <c r="G17">
-        <v>64.53967639648691</v>
+        <v>37.62312918616911</v>
       </c>
       <c r="I17">
-        <v>110.9281923816771</v>
+        <v>64.66511679924119</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>14.86755164956688</v>
+        <v>8.666975845328908</v>
       </c>
       <c r="C18">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D18">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="F18">
-        <v>8.517954144923277</v>
+        <v>4.965505051924267</v>
       </c>
       <c r="G18">
-        <v>56.94677329101788</v>
+        <v>33.19687869367863</v>
       </c>
       <c r="I18">
-        <v>88.56282585575033</v>
+        <v>51.62732173916608</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>13.55017365530146</v>
+        <v>7.899015960299766</v>
       </c>
       <c r="C19">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D19">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E19">
-        <v>3.454388962276878</v>
+        <v>2.013721317544351</v>
       </c>
       <c r="F19">
-        <v>8.044734470205318</v>
+        <v>4.689643660150697</v>
       </c>
       <c r="G19">
-        <v>87.31838571289406</v>
+        <v>50.90188066364059</v>
       </c>
       <c r="I19">
-        <v>122.678751243323</v>
+        <v>71.51505498835576</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>23.33641018413029</v>
+        <v>13.60386082051626</v>
       </c>
       <c r="C20">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D20">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E20">
-        <v>6.908777924553756</v>
+        <v>4.027442635088702</v>
       </c>
       <c r="F20">
-        <v>12.30371154266695</v>
+        <v>7.172396186112829</v>
       </c>
       <c r="G20">
-        <v>159.45096521485</v>
+        <v>92.95126034230017</v>
       </c>
       <c r="H20">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I20">
-        <v>213.2394637219886</v>
+        <v>124.307036216229</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>76.59612052371796</v>
+        <v>44.65138188669444</v>
       </c>
       <c r="C21">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D21">
-        <v>17.03254753879264</v>
+        <v>9.929050968350442</v>
       </c>
       <c r="E21">
-        <v>34.54388962276879</v>
+        <v>20.13721317544351</v>
       </c>
       <c r="F21">
-        <v>14.66980991625675</v>
+        <v>8.551703144980682</v>
       </c>
       <c r="G21">
-        <v>231.583544716806</v>
+        <v>135.0006400209597</v>
       </c>
       <c r="H21">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I21">
-        <v>380.5557469124919</v>
+        <v>221.8433501381348</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>171.0709423981809</v>
+        <v>99.72507649878452</v>
       </c>
       <c r="C22">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D22">
-        <v>45.98787835474013</v>
+        <v>26.80843761454619</v>
       </c>
       <c r="E22">
-        <v>74.26936268895291</v>
+        <v>43.29500832720355</v>
       </c>
       <c r="F22">
-        <v>40.69689202574455</v>
+        <v>23.72407969252705</v>
       </c>
       <c r="G22">
-        <v>250.5658024804787</v>
+        <v>146.066266252186</v>
       </c>
       <c r="H22">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I22">
-        <v>590.4660429454725</v>
+        <v>344.2096622441824</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>267.0513391232327</v>
+        <v>155.6764395509078</v>
       </c>
       <c r="C23">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D23">
-        <v>66.42693540129132</v>
+        <v>38.72329877656673</v>
       </c>
       <c r="E23">
-        <v>67.36058476439912</v>
+        <v>39.26756569211484</v>
       </c>
       <c r="F23">
-        <v>44.95586909820617</v>
+        <v>26.20683221848918</v>
       </c>
       <c r="G23">
-        <v>212.6012869531333</v>
+        <v>123.9350137897335</v>
       </c>
       <c r="H23">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I23">
-        <v>671.2490236725271</v>
+        <v>391.3017564354578</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>316.1707186237007</v>
+        <v>184.3103724069945</v>
       </c>
       <c r="C24">
-        <v>15.60391254302248</v>
+        <v>9.096234288645663</v>
       </c>
       <c r="D24">
-        <v>74.94320917068767</v>
+        <v>43.68782426074195</v>
       </c>
       <c r="E24">
-        <v>72.54216820781447</v>
+        <v>42.28814766843138</v>
       </c>
       <c r="F24">
-        <v>59.62567901446293</v>
+        <v>34.75853536346987</v>
       </c>
       <c r="G24">
-        <v>206.9066096240316</v>
+        <v>120.6153259203657</v>
       </c>
       <c r="H24">
-        <v>6.499712891996301</v>
+        <v>3.788979918435052</v>
       </c>
       <c r="I24">
-        <v>752.2920100757161</v>
+        <v>438.5454198270842</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>204.7581796801108</v>
+        <v>119.3629078445297</v>
       </c>
       <c r="C25">
-        <v>10.40260836201499</v>
+        <v>6.064156192430442</v>
       </c>
       <c r="D25">
-        <v>78.34971867844615</v>
+        <v>45.67363445441202</v>
       </c>
       <c r="E25">
-        <v>37.99827858504567</v>
+        <v>22.15093449298786</v>
       </c>
       <c r="F25">
-        <v>55.3667019420013</v>
+        <v>32.27578283750773</v>
       </c>
       <c r="G25">
-        <v>220.1941900586024</v>
+        <v>128.3612642822241</v>
       </c>
       <c r="H25">
-        <v>7.428243305138628</v>
+        <v>4.330262763925774</v>
       </c>
       <c r="I25">
-        <v>614.49792061136</v>
+        <v>358.2189428680177</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>168.43618640965</v>
+        <v>98.18915672872623</v>
       </c>
       <c r="C26">
-        <v>14.04352128872023</v>
+        <v>8.186610859781096</v>
       </c>
       <c r="D26">
-        <v>66.42693540129132</v>
+        <v>38.72329877656673</v>
       </c>
       <c r="E26">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F26">
-        <v>68.14363315938621</v>
+        <v>39.72404041539414</v>
       </c>
       <c r="G26">
-        <v>180.3314487548899</v>
+        <v>105.123449196649</v>
       </c>
       <c r="H26">
-        <v>6.499712891996301</v>
+        <v>3.788979918435052</v>
       </c>
       <c r="I26">
-        <v>519.42618823618</v>
+        <v>302.7972818245019</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>167.8715958406791</v>
+        <v>97.86003106371366</v>
       </c>
       <c r="C27">
-        <v>16.12404296112323</v>
+        <v>9.399442098267185</v>
       </c>
       <c r="D27">
-        <v>49.39438786249868</v>
+        <v>28.79424780821627</v>
       </c>
       <c r="E27">
-        <v>18.99913929252283</v>
+        <v>11.07546724649393</v>
       </c>
       <c r="F27">
-        <v>74.29548893071967</v>
+        <v>43.31023850845055</v>
       </c>
       <c r="G27">
-        <v>182.2296745312572</v>
+        <v>106.2300118197716</v>
       </c>
       <c r="H27">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I27">
-        <v>512.62845107137</v>
+        <v>298.8345699268762</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>157.8971624555267</v>
+        <v>92.0454776484931</v>
       </c>
       <c r="C28">
-        <v>14.04352128872023</v>
+        <v>8.186610859781096</v>
       </c>
       <c r="D28">
-        <v>52.80089737025722</v>
+        <v>30.78005800188637</v>
       </c>
       <c r="E28">
-        <v>29.36230617935347</v>
+        <v>17.11663119912699</v>
       </c>
       <c r="F28">
-        <v>55.3667019420013</v>
+        <v>32.27578283750773</v>
       </c>
       <c r="G28">
-        <v>142.3669332275447</v>
+        <v>82.99219673419655</v>
       </c>
       <c r="H28">
-        <v>7.428243305138628</v>
+        <v>4.330262763925774</v>
       </c>
       <c r="I28">
-        <v>459.2657657685422</v>
+        <v>267.7270200449176</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>195.1601400076057</v>
+        <v>113.7677715393174</v>
       </c>
       <c r="C29">
-        <v>13.52339087061948</v>
+        <v>7.883403050159572</v>
       </c>
       <c r="D29">
-        <v>63.02042589353278</v>
+        <v>36.73748858289664</v>
       </c>
       <c r="E29">
-        <v>22.45352825479972</v>
+        <v>13.08918856403828</v>
       </c>
       <c r="F29">
-        <v>61.99177738805274</v>
+        <v>36.13784232233772</v>
       </c>
       <c r="G29">
-        <v>180.3314487548899</v>
+        <v>105.123449196649</v>
       </c>
       <c r="H29">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I29">
-        <v>542.0518936483543</v>
+        <v>315.9868403283429</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>170.1299581165626</v>
+        <v>99.1765337237637</v>
       </c>
       <c r="C30">
-        <v>18.20456463352622</v>
+        <v>10.61227333675327</v>
       </c>
       <c r="D30">
-        <v>59.61391638577427</v>
+        <v>34.75167838922653</v>
       </c>
       <c r="E30">
-        <v>20.72633377366127</v>
+        <v>12.08232790526611</v>
       </c>
       <c r="F30">
-        <v>53.94704291784743</v>
+        <v>31.44819866218702</v>
       </c>
       <c r="G30">
-        <v>159.45096521485</v>
+        <v>92.95126034230017</v>
       </c>
       <c r="H30">
-        <v>7.428243305138628</v>
+        <v>4.330262763925774</v>
       </c>
       <c r="I30">
-        <v>489.5010243473604</v>
+        <v>285.3525351234226</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>212.850644502027</v>
+        <v>124.0803757097088</v>
       </c>
       <c r="C31">
-        <v>17.68443421542548</v>
+        <v>10.30906552713175</v>
       </c>
       <c r="D31">
-        <v>85.16273769396319</v>
+        <v>49.6452548417522</v>
       </c>
       <c r="E31">
-        <v>29.36230617935347</v>
+        <v>17.11663119912699</v>
       </c>
       <c r="F31">
-        <v>50.16128552010375</v>
+        <v>29.24130752799846</v>
       </c>
       <c r="G31">
-        <v>142.3669332275447</v>
+        <v>82.99219673419655</v>
       </c>
       <c r="H31">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I31">
-        <v>539.4454021647022</v>
+        <v>314.4673972308962</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>264.7929768473494</v>
+        <v>154.3599368908579</v>
       </c>
       <c r="C32">
-        <v>13.52339087061948</v>
+        <v>7.883403050159572</v>
       </c>
       <c r="D32">
-        <v>114.1180685099107</v>
+        <v>66.52464148794793</v>
       </c>
       <c r="E32">
-        <v>41.45266754732254</v>
+        <v>24.16465581053221</v>
       </c>
       <c r="F32">
-        <v>53.0006035684115</v>
+        <v>30.89647587863988</v>
       </c>
       <c r="G32">
-        <v>113.8935465820358</v>
+        <v>66.39375738735727</v>
       </c>
       <c r="H32">
-        <v>12.9994257839926</v>
+        <v>7.577959836870105</v>
       </c>
       <c r="I32">
-        <v>613.7806797096421</v>
+        <v>357.8008303423648</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>316.1707186237007</v>
+        <v>184.3103724069945</v>
       </c>
       <c r="C33">
-        <v>13.52339087061948</v>
+        <v>7.883403050159572</v>
       </c>
       <c r="D33">
-        <v>74.94320917068767</v>
+        <v>43.68782426074195</v>
       </c>
       <c r="E33">
-        <v>62.17900132098384</v>
+        <v>36.24698371579832</v>
       </c>
       <c r="F33">
-        <v>35.01825592912903</v>
+        <v>20.4137429912442</v>
       </c>
       <c r="G33">
-        <v>87.31838571289406</v>
+        <v>50.90188066364059</v>
       </c>
       <c r="H33">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I33">
-        <v>592.8670832805841</v>
+        <v>345.609338470542</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>327.8389237157659</v>
+        <v>191.1123028172528</v>
       </c>
       <c r="C34">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D34">
-        <v>51.09764261637793</v>
+        <v>29.78715290505132</v>
       </c>
       <c r="E34">
-        <v>77.72375165122978</v>
+        <v>45.3087296447479</v>
       </c>
       <c r="F34">
-        <v>21.29488536230819</v>
+        <v>12.41376262981067</v>
       </c>
       <c r="G34">
-        <v>100.6059661474649</v>
+        <v>58.64781902549893</v>
       </c>
       <c r="H34">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I34">
-        <v>586.7715257596996</v>
+        <v>342.0559592025536</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>220.002125042325</v>
+        <v>128.2493007998669</v>
       </c>
       <c r="C35">
-        <v>8.322086689611989</v>
+        <v>4.851324953944353</v>
       </c>
       <c r="D35">
-        <v>25.54882130818896</v>
+        <v>14.89357645252566</v>
       </c>
       <c r="E35">
-        <v>63.90619580212229</v>
+        <v>37.25384437457049</v>
       </c>
       <c r="F35">
-        <v>22.24132471174411</v>
+        <v>12.96548541335781</v>
       </c>
       <c r="G35">
-        <v>113.8935465820358</v>
+        <v>66.39375738735727</v>
       </c>
       <c r="H35">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I35">
-        <v>454.8426305491705</v>
+        <v>265.1485722271133</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>186.6912814730424</v>
+        <v>108.8308865641301</v>
       </c>
       <c r="C36">
-        <v>9.362347525813487</v>
+        <v>5.457740573187397</v>
       </c>
       <c r="D36">
-        <v>39.17485933922308</v>
+        <v>22.83681722720601</v>
       </c>
       <c r="E36">
-        <v>53.54302891529161</v>
+        <v>31.21268042193744</v>
       </c>
       <c r="F36">
-        <v>17.98234763928247</v>
+        <v>10.48273288739567</v>
       </c>
       <c r="G36">
-        <v>146.1633847802792</v>
+        <v>85.20532198044182</v>
       </c>
       <c r="H36">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I36">
-        <v>455.7028409123591</v>
+        <v>265.6500281907706</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>159.214540449792</v>
+        <v>92.81343753352219</v>
       </c>
       <c r="C37">
-        <v>9.882477943914237</v>
+        <v>5.760948382808921</v>
       </c>
       <c r="D37">
-        <v>35.76834983146455</v>
+        <v>20.85100703353592</v>
       </c>
       <c r="E37">
-        <v>24.18072273593816</v>
+        <v>14.09604922281046</v>
       </c>
       <c r="F37">
-        <v>11.35727219323103</v>
+        <v>6.620673402565689</v>
       </c>
       <c r="G37">
-        <v>83.52193416015955</v>
+        <v>48.68875541739533</v>
       </c>
       <c r="I37">
-        <v>323.9252973144996</v>
+        <v>188.8308709926385</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>66.24529342591821</v>
+        <v>38.61741136146553</v>
       </c>
       <c r="C38">
-        <v>8.322086689611989</v>
+        <v>4.851324953944353</v>
       </c>
       <c r="D38">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E38">
-        <v>20.72633377366127</v>
+        <v>12.08232790526611</v>
       </c>
       <c r="F38">
-        <v>8.517954144923277</v>
+        <v>4.965505051924267</v>
       </c>
       <c r="G38">
-        <v>55.04854751465059</v>
+        <v>32.09031607055602</v>
       </c>
       <c r="I38">
-        <v>163.9699798104031</v>
+        <v>95.58560063366141</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>42.53248952914065</v>
+        <v>24.79413343094092</v>
       </c>
       <c r="C39">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D39">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E39">
-        <v>10.36316688683064</v>
+        <v>6.041163952633053</v>
       </c>
       <c r="F39">
-        <v>4.258977072461638</v>
+        <v>2.482752525962133</v>
       </c>
       <c r="G39">
-        <v>53.15032173828333</v>
+        <v>30.98375344743338</v>
       </c>
       <c r="I39">
-        <v>120.0958932512608</v>
+        <v>70.00938893406833</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>42.90888324178795</v>
+        <v>25.01355054094925</v>
       </c>
       <c r="C40">
-        <v>9.362347525813487</v>
+        <v>5.457740573187397</v>
       </c>
       <c r="D40">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E40">
-        <v>12.09036136796908</v>
+        <v>7.04802461140523</v>
       </c>
       <c r="F40">
-        <v>7.098295120769397</v>
+        <v>4.137920876603556</v>
       </c>
       <c r="G40">
-        <v>77.82725683105777</v>
+        <v>45.36906754802747</v>
       </c>
       <c r="I40">
-        <v>152.6936535951562</v>
+        <v>89.012114343843</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>20.32526048295219</v>
+        <v>11.84852394044964</v>
       </c>
       <c r="C41">
-        <v>8.84221710771274</v>
+        <v>5.154532763565875</v>
       </c>
       <c r="D41">
-        <v>1.703254753879265</v>
+        <v>0.9929050968350439</v>
       </c>
       <c r="E41">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F41">
-        <v>7.571514795487357</v>
+        <v>4.413782268377125</v>
       </c>
       <c r="G41">
-        <v>79.72548260742501</v>
+        <v>46.47563017115009</v>
       </c>
       <c r="I41">
-        <v>126.8037021531487</v>
+        <v>73.91967753423864</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>19.94886677030493</v>
+        <v>11.62910683044132</v>
       </c>
       <c r="C42">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="F42">
-        <v>7.571514795487357</v>
+        <v>4.413782268377125</v>
       </c>
       <c r="G42">
-        <v>70.2343537255887</v>
+        <v>40.94281705553698</v>
       </c>
       <c r="I42">
-        <v>103.4761698904892</v>
+        <v>60.32099206019217</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>16.56132335647955</v>
+        <v>9.654352840366382</v>
       </c>
       <c r="C43">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D43">
-        <v>1.703254753879265</v>
+        <v>0.9929050968350439</v>
       </c>
       <c r="E43">
-        <v>5.181583443415318</v>
+        <v>3.020581976316527</v>
       </c>
       <c r="F43">
-        <v>7.098295120769397</v>
+        <v>4.137920876603556</v>
       </c>
       <c r="G43">
-        <v>94.91128881836312</v>
+        <v>55.32813115613105</v>
       </c>
       <c r="I43">
-        <v>130.1369192558134</v>
+        <v>75.86276223284625</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>26.91215045427928</v>
+        <v>15.68832336559536</v>
       </c>
       <c r="C44">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D44">
-        <v>6.813019015517058</v>
+        <v>3.971620387340176</v>
       </c>
       <c r="E44">
-        <v>6.908777924553756</v>
+        <v>4.027442635088702</v>
       </c>
       <c r="F44">
-        <v>11.83049186794899</v>
+        <v>6.896534794339262</v>
       </c>
       <c r="G44">
-        <v>130.9775785693411</v>
+        <v>76.35282099546086</v>
       </c>
       <c r="I44">
-        <v>186.5628003402447</v>
+        <v>108.7559890355535</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>77.72530166165971</v>
+        <v>45.3096332167195</v>
       </c>
       <c r="C45">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D45">
-        <v>22.14231180043043</v>
+        <v>12.90776625885557</v>
       </c>
       <c r="E45">
-        <v>31.08950066049192</v>
+        <v>18.12349185789916</v>
       </c>
       <c r="F45">
-        <v>21.29488536230819</v>
+        <v>12.41376262981067</v>
       </c>
       <c r="G45">
-        <v>275.242737573253</v>
+        <v>160.4515803527801</v>
       </c>
       <c r="H45">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I45">
-        <v>431.5440499798901</v>
+        <v>251.5667640192848</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>176.1522575189189</v>
+        <v>102.687207483897</v>
       </c>
       <c r="C46">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D46">
-        <v>52.80089737025722</v>
+        <v>30.78005800188637</v>
       </c>
       <c r="E46">
-        <v>82.90533509464508</v>
+        <v>48.32931162106443</v>
       </c>
       <c r="F46">
-        <v>44.95586909820617</v>
+        <v>26.20683221848918</v>
       </c>
       <c r="G46">
-        <v>303.716124218762</v>
+        <v>177.0500196996194</v>
       </c>
       <c r="H46">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I46">
-        <v>664.8764657945186</v>
+        <v>387.586900990293</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>255.3831340311677</v>
+        <v>148.8745091406497</v>
       </c>
       <c r="C47">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D47">
-        <v>51.09764261637793</v>
+        <v>29.78715290505132</v>
       </c>
       <c r="E47">
-        <v>69.08777924553758</v>
+        <v>40.27442635088701</v>
       </c>
       <c r="F47">
-        <v>41.64333137518047</v>
+        <v>24.2758024760742</v>
       </c>
       <c r="G47">
-        <v>191.7208034130935</v>
+        <v>111.7628249353847</v>
       </c>
       <c r="H47">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I47">
-        <v>617.7363860918748</v>
+        <v>360.1067925124727</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>288.882174456774</v>
+        <v>168.4026319313908</v>
       </c>
       <c r="C48">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D48">
-        <v>56.20740687801572</v>
+        <v>32.76586819555644</v>
       </c>
       <c r="E48">
-        <v>55.27022339643005</v>
+        <v>32.21954108070962</v>
       </c>
       <c r="F48">
-        <v>47.79518714651393</v>
+        <v>27.8620005691306</v>
       </c>
       <c r="G48">
-        <v>172.7385456494208</v>
+        <v>100.6971987041585</v>
       </c>
       <c r="H48">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I48">
-        <v>630.0324242068497</v>
+        <v>367.2747155066286</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>207.3929356686418</v>
+        <v>120.898827614588</v>
       </c>
       <c r="C49">
-        <v>8.84221710771274</v>
+        <v>5.154532763565875</v>
       </c>
       <c r="D49">
-        <v>64.72368064741205</v>
+        <v>37.73039367973168</v>
       </c>
       <c r="E49">
-        <v>37.99827858504567</v>
+        <v>22.15093449298786</v>
       </c>
       <c r="F49">
-        <v>60.0988986891809</v>
+        <v>35.03439675524344</v>
       </c>
       <c r="G49">
-        <v>233.4817704931732</v>
+        <v>136.1072026440823</v>
       </c>
       <c r="H49">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I49">
-        <v>614.394842017451</v>
+        <v>358.1588536411806</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>93.69110597355555</v>
+        <v>160.7201153003812</v>
       </c>
       <c r="C2">
-        <v>8.186610859781096</v>
+        <v>14.04352128872023</v>
       </c>
       <c r="D2">
-        <v>38.72329877656673</v>
+        <v>66.42693540129132</v>
       </c>
       <c r="E2">
-        <v>8.054885270177405</v>
+        <v>13.81755584910751</v>
       </c>
       <c r="F2">
-        <v>35.310258147017</v>
+        <v>60.57211836389886</v>
       </c>
       <c r="G2">
-        <v>96.27094821166806</v>
+        <v>165.1456425439519</v>
       </c>
       <c r="H2">
-        <v>3.788979918435052</v>
+        <v>6.499712891996301</v>
       </c>
       <c r="I2">
-        <v>284.0260871572009</v>
+        <v>487.2256016393472</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>96.21440273865133</v>
+        <v>165.0486429958247</v>
       </c>
       <c r="C3">
-        <v>9.702649907888706</v>
+        <v>16.64417337922398</v>
       </c>
       <c r="D3">
-        <v>29.78715290505132</v>
+        <v>51.09764261637793</v>
       </c>
       <c r="E3">
-        <v>11.07546724649393</v>
+        <v>18.99913929252283</v>
       </c>
       <c r="F3">
-        <v>30.6206144868663</v>
+        <v>52.52738389369353</v>
       </c>
       <c r="G3">
-        <v>81.88563411107397</v>
+        <v>140.4687074511774</v>
       </c>
       <c r="H3">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I3">
-        <v>260.9097699324977</v>
+        <v>447.5712808682474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>97.20177973368874</v>
+        <v>166.7424147027374</v>
       </c>
       <c r="C4">
-        <v>11.52189676561784</v>
+        <v>19.76495588782847</v>
       </c>
       <c r="D4">
-        <v>31.77296309872141</v>
+        <v>54.50415212413647</v>
       </c>
       <c r="E4">
-        <v>11.07546724649393</v>
+        <v>18.99913929252283</v>
       </c>
       <c r="F4">
-        <v>29.24130752799846</v>
+        <v>50.16128552010375</v>
       </c>
       <c r="G4">
-        <v>90.73813509605493</v>
+        <v>155.6545136621155</v>
       </c>
       <c r="H4">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I4">
-        <v>272.6341151595567</v>
+        <v>467.6835220157291</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>113.8774800943215</v>
+        <v>195.3483368639293</v>
       </c>
       <c r="C5">
-        <v>10.30906552713175</v>
+        <v>17.68443421542548</v>
       </c>
       <c r="D5">
-        <v>44.68072935757699</v>
+        <v>76.6464639245669</v>
       </c>
       <c r="E5">
-        <v>15.10290988158264</v>
+        <v>25.9079172170766</v>
       </c>
       <c r="F5">
-        <v>38.06887206475271</v>
+        <v>65.30431511107847</v>
       </c>
       <c r="G5">
-        <v>95.1643855885454</v>
+        <v>163.2474167675846</v>
       </c>
       <c r="H5">
-        <v>4.330262763925774</v>
+        <v>7.428243305138628</v>
       </c>
       <c r="I5">
-        <v>321.5337052778368</v>
+        <v>551.5671274047999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>111.5736004392341</v>
+        <v>191.3962028811331</v>
       </c>
       <c r="C6">
-        <v>8.793026479024141</v>
+        <v>15.08378212492173</v>
       </c>
       <c r="D6">
-        <v>39.71620387340177</v>
+        <v>68.13019015517057</v>
       </c>
       <c r="E6">
-        <v>13.08918856403828</v>
+        <v>22.45352825479972</v>
       </c>
       <c r="F6">
-        <v>36.96542649765843</v>
+        <v>63.41143641220662</v>
       </c>
       <c r="G6">
-        <v>96.27094821166806</v>
+        <v>165.1456425439519</v>
       </c>
       <c r="H6">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I6">
-        <v>309.6560911379691</v>
+        <v>531.1919648510376</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>127.0425066948212</v>
+        <v>217.9319596227651</v>
       </c>
       <c r="C7">
-        <v>8.489818669402622</v>
+        <v>14.56365170682098</v>
       </c>
       <c r="D7">
-        <v>42.6949191639069</v>
+        <v>73.23995441680836</v>
       </c>
       <c r="E7">
-        <v>14.09604922281046</v>
+        <v>24.18072273593816</v>
       </c>
       <c r="F7">
-        <v>30.34475309509274</v>
+        <v>52.05416421897559</v>
       </c>
       <c r="G7">
-        <v>85.20532198044182</v>
+        <v>146.1633847802792</v>
       </c>
       <c r="H7">
-        <v>5.412828454907217</v>
+        <v>9.285304131423285</v>
       </c>
       <c r="I7">
-        <v>313.286197281383</v>
+        <v>537.4191416130107</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>141.0852017353541</v>
+        <v>242.0211572321899</v>
       </c>
       <c r="C8">
-        <v>6.670571811673486</v>
+        <v>11.44286919821649</v>
       </c>
       <c r="D8">
-        <v>58.58140071326762</v>
+        <v>100.4920304788766</v>
       </c>
       <c r="E8">
-        <v>23.15779515176004</v>
+        <v>39.72547306618411</v>
       </c>
       <c r="F8">
-        <v>32.55164422928131</v>
+        <v>55.83992161671926</v>
       </c>
       <c r="G8">
-        <v>59.75438164862152</v>
+        <v>102.5041919238321</v>
       </c>
       <c r="H8">
-        <v>5.95411130039794</v>
+        <v>10.21383454456561</v>
       </c>
       <c r="I8">
-        <v>327.755106590356</v>
+        <v>562.2394780605841</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>163.5754555112076</v>
+        <v>280.6015127785344</v>
       </c>
       <c r="C9">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D9">
-        <v>48.65234974491717</v>
+        <v>83.45948294008396</v>
       </c>
       <c r="E9">
-        <v>28.19209844562092</v>
+        <v>48.36144547187632</v>
       </c>
       <c r="F9">
-        <v>15.99996072286708</v>
+        <v>27.44674113364167</v>
       </c>
       <c r="G9">
-        <v>52.00844328676318</v>
+        <v>89.21661148926134</v>
       </c>
       <c r="H9">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I9">
-        <v>314.8383484280401</v>
+        <v>540.0817413193776</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>183.2132868569529</v>
+        <v>314.2887500604643</v>
       </c>
       <c r="C10">
-        <v>3.941701525079786</v>
+        <v>6.76169543530974</v>
       </c>
       <c r="D10">
-        <v>30.78005800188637</v>
+        <v>52.80089737025722</v>
       </c>
       <c r="E10">
-        <v>41.28128700965918</v>
+        <v>70.81497372667603</v>
       </c>
       <c r="F10">
-        <v>10.75859427916924</v>
+        <v>18.45556731400043</v>
       </c>
       <c r="G10">
-        <v>58.64781902549893</v>
+        <v>100.6059661474649</v>
       </c>
       <c r="H10">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I10">
-        <v>329.7053123892279</v>
+        <v>565.5849108804573</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>127.3716323598337</v>
+        <v>218.496550191736</v>
       </c>
       <c r="C11">
-        <v>5.154532763565875</v>
+        <v>8.84221710771274</v>
       </c>
       <c r="D11">
-        <v>15.8864815493607</v>
+        <v>27.25207606206823</v>
       </c>
       <c r="E11">
-        <v>40.27442635088701</v>
+        <v>69.08777924553758</v>
       </c>
       <c r="F11">
-        <v>11.03445567094281</v>
+        <v>18.92878698871839</v>
       </c>
       <c r="G11">
-        <v>59.75438164862152</v>
+        <v>102.5041919238321</v>
       </c>
       <c r="H11">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I11">
-        <v>260.558476034193</v>
+        <v>446.9686623458898</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>101.0415791588345</v>
+        <v>173.3293046740645</v>
       </c>
       <c r="C12">
-        <v>6.367364002051964</v>
+        <v>10.92273878011573</v>
       </c>
       <c r="D12">
-        <v>23.82972232404106</v>
+        <v>40.87811409310234</v>
       </c>
       <c r="E12">
-        <v>30.20581976316528</v>
+        <v>51.8158344341532</v>
       </c>
       <c r="F12">
-        <v>7.448257577886398</v>
+        <v>12.77693121738491</v>
       </c>
       <c r="G12">
-        <v>82.99219673419655</v>
+        <v>142.3669332275447</v>
       </c>
       <c r="I12">
-        <v>251.8849395601757</v>
+        <v>432.0898564263654</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>89.41247232839315</v>
+        <v>153.3804379037595</v>
       </c>
       <c r="C13">
-        <v>6.670571811673486</v>
+        <v>11.44286919821649</v>
       </c>
       <c r="D13">
-        <v>17.8722917430308</v>
+        <v>30.65858556982676</v>
       </c>
       <c r="E13">
-        <v>10.06860658772175</v>
+        <v>17.27194481138439</v>
       </c>
       <c r="F13">
-        <v>7.724118969659971</v>
+        <v>13.25015089210287</v>
       </c>
       <c r="G13">
-        <v>48.68875541739533</v>
+        <v>83.52193416015955</v>
       </c>
       <c r="I13">
-        <v>180.4368168578745</v>
+        <v>309.5259225354496</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>56.71932293715249</v>
+        <v>97.2977747193174</v>
       </c>
       <c r="C14">
-        <v>5.457740573187397</v>
+        <v>9.362347525813487</v>
       </c>
       <c r="D14">
-        <v>12.90776625885557</v>
+        <v>22.14231180043043</v>
       </c>
       <c r="E14">
-        <v>15.10290988158264</v>
+        <v>25.9079172170766</v>
       </c>
       <c r="F14">
-        <v>6.344812010792118</v>
+        <v>10.88405251851308</v>
       </c>
       <c r="G14">
-        <v>56.43469377925369</v>
+        <v>96.8095145947304</v>
       </c>
       <c r="I14">
-        <v>152.9672454408239</v>
+        <v>262.4039183758814</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>35.98440604136557</v>
+        <v>61.72856887415107</v>
       </c>
       <c r="C15">
-        <v>5.457740573187397</v>
+        <v>9.362347525813487</v>
       </c>
       <c r="D15">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E15">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F15">
-        <v>3.034475309509275</v>
+        <v>5.205416421897559</v>
       </c>
       <c r="G15">
-        <v>40.94281705553698</v>
+        <v>70.2343537255887</v>
       </c>
       <c r="I15">
-        <v>97.45990019905395</v>
+        <v>167.1852011393346</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>17.6630773556703</v>
+        <v>30.29969386810463</v>
       </c>
       <c r="C16">
-        <v>5.154532763565875</v>
+        <v>8.84221710771274</v>
       </c>
       <c r="D16">
-        <v>0.9929050968350439</v>
+        <v>1.703254753879265</v>
       </c>
       <c r="E16">
-        <v>7.04802461140523</v>
+        <v>12.09036136796908</v>
       </c>
       <c r="F16">
-        <v>5.517227835471407</v>
+        <v>9.464393494359197</v>
       </c>
       <c r="G16">
-        <v>38.72969180929175</v>
+        <v>66.43790217285419</v>
       </c>
       <c r="H16">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I16">
-        <v>75.64674231773034</v>
+        <v>129.7663531780214</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>12.50677527047463</v>
+        <v>21.45444162089397</v>
       </c>
       <c r="C17">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D17">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E17">
-        <v>4.027442635088702</v>
+        <v>6.908777924553756</v>
       </c>
       <c r="F17">
-        <v>5.793089227244978</v>
+        <v>9.937613169077155</v>
       </c>
       <c r="G17">
-        <v>37.62312918616911</v>
+        <v>64.53967639648691</v>
       </c>
       <c r="I17">
-        <v>64.66511679924119</v>
+        <v>110.9281923816771</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>8.666975845328908</v>
+        <v>14.86755164956688</v>
       </c>
       <c r="C18">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D18">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="F18">
-        <v>4.965505051924267</v>
+        <v>8.517954144923277</v>
       </c>
       <c r="G18">
-        <v>33.19687869367863</v>
+        <v>56.94677329101788</v>
       </c>
       <c r="I18">
-        <v>51.62732173916608</v>
+        <v>88.56282585575033</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>7.899015960299766</v>
+        <v>13.55017365530146</v>
       </c>
       <c r="C19">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D19">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E19">
-        <v>2.013721317544351</v>
+        <v>3.454388962276878</v>
       </c>
       <c r="F19">
-        <v>4.689643660150697</v>
+        <v>8.044734470205318</v>
       </c>
       <c r="G19">
-        <v>50.90188066364059</v>
+        <v>87.31838571289406</v>
       </c>
       <c r="I19">
-        <v>71.51505498835576</v>
+        <v>122.678751243323</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>13.60386082051626</v>
+        <v>23.33641018413029</v>
       </c>
       <c r="C20">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D20">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E20">
-        <v>4.027442635088702</v>
+        <v>6.908777924553756</v>
       </c>
       <c r="F20">
-        <v>7.172396186112829</v>
+        <v>12.30371154266695</v>
       </c>
       <c r="G20">
-        <v>92.95126034230017</v>
+        <v>159.45096521485</v>
       </c>
       <c r="H20">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I20">
-        <v>124.307036216229</v>
+        <v>213.2394637219886</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>44.65138188669444</v>
+        <v>76.59612052371796</v>
       </c>
       <c r="C21">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D21">
-        <v>9.929050968350442</v>
+        <v>17.03254753879264</v>
       </c>
       <c r="E21">
-        <v>20.13721317544351</v>
+        <v>34.54388962276879</v>
       </c>
       <c r="F21">
-        <v>8.551703144980682</v>
+        <v>14.66980991625675</v>
       </c>
       <c r="G21">
-        <v>135.0006400209597</v>
+        <v>231.583544716806</v>
       </c>
       <c r="H21">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I21">
-        <v>221.8433501381348</v>
+        <v>380.5557469124919</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>99.72507649878452</v>
+        <v>171.0709423981809</v>
       </c>
       <c r="C22">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D22">
-        <v>26.80843761454619</v>
+        <v>45.98787835474013</v>
       </c>
       <c r="E22">
-        <v>43.29500832720355</v>
+        <v>74.26936268895291</v>
       </c>
       <c r="F22">
-        <v>23.72407969252705</v>
+        <v>40.69689202574455</v>
       </c>
       <c r="G22">
-        <v>146.066266252186</v>
+        <v>250.5658024804787</v>
       </c>
       <c r="H22">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I22">
-        <v>344.2096622441824</v>
+        <v>590.4660429454725</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>155.6764395509078</v>
+        <v>267.0513391232327</v>
       </c>
       <c r="C23">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D23">
-        <v>38.72329877656673</v>
+        <v>66.42693540129132</v>
       </c>
       <c r="E23">
-        <v>39.26756569211484</v>
+        <v>67.36058476439912</v>
       </c>
       <c r="F23">
-        <v>26.20683221848918</v>
+        <v>44.95586909820617</v>
       </c>
       <c r="G23">
-        <v>123.9350137897335</v>
+        <v>212.6012869531333</v>
       </c>
       <c r="H23">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I23">
-        <v>391.3017564354578</v>
+        <v>671.2490236725271</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>184.3103724069945</v>
+        <v>316.1707186237007</v>
       </c>
       <c r="C24">
-        <v>9.096234288645663</v>
+        <v>15.60391254302248</v>
       </c>
       <c r="D24">
-        <v>43.68782426074195</v>
+        <v>74.94320917068767</v>
       </c>
       <c r="E24">
-        <v>42.28814766843138</v>
+        <v>72.54216820781447</v>
       </c>
       <c r="F24">
-        <v>34.75853536346987</v>
+        <v>59.62567901446293</v>
       </c>
       <c r="G24">
-        <v>120.6153259203657</v>
+        <v>206.9066096240316</v>
       </c>
       <c r="H24">
-        <v>3.788979918435052</v>
+        <v>6.499712891996301</v>
       </c>
       <c r="I24">
-        <v>438.5454198270842</v>
+        <v>752.2920100757161</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>119.3629078445297</v>
+        <v>204.7581796801108</v>
       </c>
       <c r="C25">
-        <v>6.064156192430442</v>
+        <v>10.40260836201499</v>
       </c>
       <c r="D25">
-        <v>45.67363445441202</v>
+        <v>78.34971867844615</v>
       </c>
       <c r="E25">
-        <v>22.15093449298786</v>
+        <v>37.99827858504567</v>
       </c>
       <c r="F25">
-        <v>32.27578283750773</v>
+        <v>55.3667019420013</v>
       </c>
       <c r="G25">
-        <v>128.3612642822241</v>
+        <v>220.1941900586024</v>
       </c>
       <c r="H25">
-        <v>4.330262763925774</v>
+        <v>7.428243305138628</v>
       </c>
       <c r="I25">
-        <v>358.2189428680177</v>
+        <v>614.49792061136</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>98.18915672872623</v>
+        <v>168.43618640965</v>
       </c>
       <c r="C26">
-        <v>8.186610859781096</v>
+        <v>14.04352128872023</v>
       </c>
       <c r="D26">
-        <v>38.72329877656673</v>
+        <v>66.42693540129132</v>
       </c>
       <c r="E26">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F26">
-        <v>39.72404041539414</v>
+        <v>68.14363315938621</v>
       </c>
       <c r="G26">
-        <v>105.123449196649</v>
+        <v>180.3314487548899</v>
       </c>
       <c r="H26">
-        <v>3.788979918435052</v>
+        <v>6.499712891996301</v>
       </c>
       <c r="I26">
-        <v>302.7972818245019</v>
+        <v>519.42618823618</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>97.86003106371366</v>
+        <v>167.8715958406791</v>
       </c>
       <c r="C27">
-        <v>9.399442098267185</v>
+        <v>16.12404296112323</v>
       </c>
       <c r="D27">
-        <v>28.79424780821627</v>
+        <v>49.39438786249868</v>
       </c>
       <c r="E27">
-        <v>11.07546724649393</v>
+        <v>18.99913929252283</v>
       </c>
       <c r="F27">
-        <v>43.31023850845055</v>
+        <v>74.29548893071967</v>
       </c>
       <c r="G27">
-        <v>106.2300118197716</v>
+        <v>182.2296745312572</v>
       </c>
       <c r="H27">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I27">
-        <v>298.8345699268762</v>
+        <v>512.62845107137</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>92.0454776484931</v>
+        <v>157.8971624555267</v>
       </c>
       <c r="C28">
-        <v>8.186610859781096</v>
+        <v>14.04352128872023</v>
       </c>
       <c r="D28">
-        <v>30.78005800188637</v>
+        <v>52.80089737025722</v>
       </c>
       <c r="E28">
-        <v>17.11663119912699</v>
+        <v>29.36230617935347</v>
       </c>
       <c r="F28">
-        <v>32.27578283750773</v>
+        <v>55.3667019420013</v>
       </c>
       <c r="G28">
-        <v>82.99219673419655</v>
+        <v>142.3669332275447</v>
       </c>
       <c r="H28">
-        <v>4.330262763925774</v>
+        <v>7.428243305138628</v>
       </c>
       <c r="I28">
-        <v>267.7270200449176</v>
+        <v>459.2657657685422</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>113.7677715393174</v>
+        <v>195.1601400076057</v>
       </c>
       <c r="C29">
-        <v>7.883403050159572</v>
+        <v>13.52339087061948</v>
       </c>
       <c r="D29">
-        <v>36.73748858289664</v>
+        <v>63.02042589353278</v>
       </c>
       <c r="E29">
-        <v>13.08918856403828</v>
+        <v>22.45352825479972</v>
       </c>
       <c r="F29">
-        <v>36.13784232233772</v>
+        <v>61.99177738805274</v>
       </c>
       <c r="G29">
-        <v>105.123449196649</v>
+        <v>180.3314487548899</v>
       </c>
       <c r="H29">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I29">
-        <v>315.9868403283429</v>
+        <v>542.0518936483543</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>99.1765337237637</v>
+        <v>170.1299581165626</v>
       </c>
       <c r="C30">
-        <v>10.61227333675327</v>
+        <v>18.20456463352622</v>
       </c>
       <c r="D30">
-        <v>34.75167838922653</v>
+        <v>59.61391638577427</v>
       </c>
       <c r="E30">
-        <v>12.08232790526611</v>
+        <v>20.72633377366127</v>
       </c>
       <c r="F30">
-        <v>31.44819866218702</v>
+        <v>53.94704291784743</v>
       </c>
       <c r="G30">
-        <v>92.95126034230017</v>
+        <v>159.45096521485</v>
       </c>
       <c r="H30">
-        <v>4.330262763925774</v>
+        <v>7.428243305138628</v>
       </c>
       <c r="I30">
-        <v>285.3525351234226</v>
+        <v>489.5010243473604</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>124.0803757097088</v>
+        <v>212.850644502027</v>
       </c>
       <c r="C31">
-        <v>10.30906552713175</v>
+        <v>17.68443421542548</v>
       </c>
       <c r="D31">
-        <v>49.6452548417522</v>
+        <v>85.16273769396319</v>
       </c>
       <c r="E31">
-        <v>17.11663119912699</v>
+        <v>29.36230617935347</v>
       </c>
       <c r="F31">
-        <v>29.24130752799846</v>
+        <v>50.16128552010375</v>
       </c>
       <c r="G31">
-        <v>82.99219673419655</v>
+        <v>142.3669332275447</v>
       </c>
       <c r="H31">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I31">
-        <v>314.4673972308962</v>
+        <v>539.4454021647022</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>154.3599368908579</v>
+        <v>264.7929768473494</v>
       </c>
       <c r="C32">
-        <v>7.883403050159572</v>
+        <v>13.52339087061948</v>
       </c>
       <c r="D32">
-        <v>66.52464148794793</v>
+        <v>114.1180685099107</v>
       </c>
       <c r="E32">
-        <v>24.16465581053221</v>
+        <v>41.45266754732254</v>
       </c>
       <c r="F32">
-        <v>30.89647587863988</v>
+        <v>53.0006035684115</v>
       </c>
       <c r="G32">
-        <v>66.39375738735727</v>
+        <v>113.8935465820358</v>
       </c>
       <c r="H32">
-        <v>7.577959836870105</v>
+        <v>12.9994257839926</v>
       </c>
       <c r="I32">
-        <v>357.8008303423648</v>
+        <v>613.7806797096421</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>184.3103724069945</v>
+        <v>316.1707186237007</v>
       </c>
       <c r="C33">
-        <v>7.883403050159572</v>
+        <v>13.52339087061948</v>
       </c>
       <c r="D33">
-        <v>43.68782426074195</v>
+        <v>74.94320917068767</v>
       </c>
       <c r="E33">
-        <v>36.24698371579832</v>
+        <v>62.17900132098384</v>
       </c>
       <c r="F33">
-        <v>20.4137429912442</v>
+        <v>35.01825592912903</v>
       </c>
       <c r="G33">
-        <v>50.90188066364059</v>
+        <v>87.31838571289406</v>
       </c>
       <c r="H33">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I33">
-        <v>345.609338470542</v>
+        <v>592.8670832805841</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>191.1123028172528</v>
+        <v>327.8389237157659</v>
       </c>
       <c r="C34">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D34">
-        <v>29.78715290505132</v>
+        <v>51.09764261637793</v>
       </c>
       <c r="E34">
-        <v>45.3087296447479</v>
+        <v>77.72375165122978</v>
       </c>
       <c r="F34">
-        <v>12.41376262981067</v>
+        <v>21.29488536230819</v>
       </c>
       <c r="G34">
-        <v>58.64781902549893</v>
+        <v>100.6059661474649</v>
       </c>
       <c r="H34">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I34">
-        <v>342.0559592025536</v>
+        <v>586.7715257596996</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>128.2493007998669</v>
+        <v>220.002125042325</v>
       </c>
       <c r="C35">
-        <v>4.851324953944353</v>
+        <v>8.322086689611989</v>
       </c>
       <c r="D35">
-        <v>14.89357645252566</v>
+        <v>25.54882130818896</v>
       </c>
       <c r="E35">
-        <v>37.25384437457049</v>
+        <v>63.90619580212229</v>
       </c>
       <c r="F35">
-        <v>12.96548541335781</v>
+        <v>22.24132471174411</v>
       </c>
       <c r="G35">
-        <v>66.39375738735727</v>
+        <v>113.8935465820358</v>
       </c>
       <c r="H35">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I35">
-        <v>265.1485722271133</v>
+        <v>454.8426305491705</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>108.8308865641301</v>
+        <v>186.6912814730424</v>
       </c>
       <c r="C36">
-        <v>5.457740573187397</v>
+        <v>9.362347525813487</v>
       </c>
       <c r="D36">
-        <v>22.83681722720601</v>
+        <v>39.17485933922308</v>
       </c>
       <c r="E36">
-        <v>31.21268042193744</v>
+        <v>53.54302891529161</v>
       </c>
       <c r="F36">
-        <v>10.48273288739567</v>
+        <v>17.98234763928247</v>
       </c>
       <c r="G36">
-        <v>85.20532198044182</v>
+        <v>146.1633847802792</v>
       </c>
       <c r="H36">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I36">
-        <v>265.6500281907706</v>
+        <v>455.7028409123591</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>92.81343753352219</v>
+        <v>159.214540449792</v>
       </c>
       <c r="C37">
-        <v>5.760948382808921</v>
+        <v>9.882477943914237</v>
       </c>
       <c r="D37">
-        <v>20.85100703353592</v>
+        <v>35.76834983146455</v>
       </c>
       <c r="E37">
-        <v>14.09604922281046</v>
+        <v>24.18072273593816</v>
       </c>
       <c r="F37">
-        <v>6.620673402565689</v>
+        <v>11.35727219323103</v>
       </c>
       <c r="G37">
-        <v>48.68875541739533</v>
+        <v>83.52193416015955</v>
       </c>
       <c r="I37">
-        <v>188.8308709926385</v>
+        <v>323.9252973144996</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>38.61741136146553</v>
+        <v>66.24529342591821</v>
       </c>
       <c r="C38">
-        <v>4.851324953944353</v>
+        <v>8.322086689611989</v>
       </c>
       <c r="D38">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E38">
-        <v>12.08232790526611</v>
+        <v>20.72633377366127</v>
       </c>
       <c r="F38">
-        <v>4.965505051924267</v>
+        <v>8.517954144923277</v>
       </c>
       <c r="G38">
-        <v>32.09031607055602</v>
+        <v>55.04854751465059</v>
       </c>
       <c r="I38">
-        <v>95.58560063366141</v>
+        <v>163.9699798104031</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>24.79413343094092</v>
+        <v>42.53248952914065</v>
       </c>
       <c r="C39">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D39">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E39">
-        <v>6.041163952633053</v>
+        <v>10.36316688683064</v>
       </c>
       <c r="F39">
-        <v>2.482752525962133</v>
+        <v>4.258977072461638</v>
       </c>
       <c r="G39">
-        <v>30.98375344743338</v>
+        <v>53.15032173828333</v>
       </c>
       <c r="I39">
-        <v>70.00938893406833</v>
+        <v>120.0958932512608</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>25.01355054094925</v>
+        <v>42.90888324178795</v>
       </c>
       <c r="C40">
-        <v>5.457740573187397</v>
+        <v>9.362347525813487</v>
       </c>
       <c r="D40">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E40">
-        <v>7.04802461140523</v>
+        <v>12.09036136796908</v>
       </c>
       <c r="F40">
-        <v>4.137920876603556</v>
+        <v>7.098295120769397</v>
       </c>
       <c r="G40">
-        <v>45.36906754802747</v>
+        <v>77.82725683105777</v>
       </c>
       <c r="I40">
-        <v>89.012114343843</v>
+        <v>152.6936535951562</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>11.84852394044964</v>
+        <v>20.32526048295219</v>
       </c>
       <c r="C41">
-        <v>5.154532763565875</v>
+        <v>8.84221710771274</v>
       </c>
       <c r="D41">
-        <v>0.9929050968350439</v>
+        <v>1.703254753879265</v>
       </c>
       <c r="E41">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F41">
-        <v>4.413782268377125</v>
+        <v>7.571514795487357</v>
       </c>
       <c r="G41">
-        <v>46.47563017115009</v>
+        <v>79.72548260742501</v>
       </c>
       <c r="I41">
-        <v>73.91967753423864</v>
+        <v>126.8037021531487</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>11.62910683044132</v>
+        <v>19.94886677030493</v>
       </c>
       <c r="C42">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="F42">
-        <v>4.413782268377125</v>
+        <v>7.571514795487357</v>
       </c>
       <c r="G42">
-        <v>40.94281705553698</v>
+        <v>70.2343537255887</v>
       </c>
       <c r="I42">
-        <v>60.32099206019217</v>
+        <v>103.4761698904892</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>9.654352840366382</v>
+        <v>16.56132335647955</v>
       </c>
       <c r="C43">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D43">
-        <v>0.9929050968350439</v>
+        <v>1.703254753879265</v>
       </c>
       <c r="E43">
-        <v>3.020581976316527</v>
+        <v>5.181583443415318</v>
       </c>
       <c r="F43">
-        <v>4.137920876603556</v>
+        <v>7.098295120769397</v>
       </c>
       <c r="G43">
-        <v>55.32813115613105</v>
+        <v>94.91128881836312</v>
       </c>
       <c r="I43">
-        <v>75.86276223284625</v>
+        <v>130.1369192558134</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>15.68832336559536</v>
+        <v>26.91215045427928</v>
       </c>
       <c r="C44">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D44">
-        <v>3.971620387340176</v>
+        <v>6.813019015517058</v>
       </c>
       <c r="E44">
-        <v>4.027442635088702</v>
+        <v>6.908777924553756</v>
       </c>
       <c r="F44">
-        <v>6.896534794339262</v>
+        <v>11.83049186794899</v>
       </c>
       <c r="G44">
-        <v>76.35282099546086</v>
+        <v>130.9775785693411</v>
       </c>
       <c r="I44">
-        <v>108.7559890355535</v>
+        <v>186.5628003402447</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>45.3096332167195</v>
+        <v>77.72530166165971</v>
       </c>
       <c r="C45">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D45">
-        <v>12.90776625885557</v>
+        <v>22.14231180043043</v>
       </c>
       <c r="E45">
-        <v>18.12349185789916</v>
+        <v>31.08950066049192</v>
       </c>
       <c r="F45">
-        <v>12.41376262981067</v>
+        <v>21.29488536230819</v>
       </c>
       <c r="G45">
-        <v>160.4515803527801</v>
+        <v>275.242737573253</v>
       </c>
       <c r="H45">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I45">
-        <v>251.5667640192848</v>
+        <v>431.5440499798901</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>102.687207483897</v>
+        <v>176.1522575189189</v>
       </c>
       <c r="C46">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D46">
-        <v>30.78005800188637</v>
+        <v>52.80089737025722</v>
       </c>
       <c r="E46">
-        <v>48.32931162106443</v>
+        <v>82.90533509464508</v>
       </c>
       <c r="F46">
-        <v>26.20683221848918</v>
+        <v>44.95586909820617</v>
       </c>
       <c r="G46">
-        <v>177.0500196996194</v>
+        <v>303.716124218762</v>
       </c>
       <c r="H46">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I46">
-        <v>387.586900990293</v>
+        <v>664.8764657945186</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>148.8745091406497</v>
+        <v>255.3831340311677</v>
       </c>
       <c r="C47">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D47">
-        <v>29.78715290505132</v>
+        <v>51.09764261637793</v>
       </c>
       <c r="E47">
-        <v>40.27442635088701</v>
+        <v>69.08777924553758</v>
       </c>
       <c r="F47">
-        <v>24.2758024760742</v>
+        <v>41.64333137518047</v>
       </c>
       <c r="G47">
-        <v>111.7628249353847</v>
+        <v>191.7208034130935</v>
       </c>
       <c r="H47">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I47">
-        <v>360.1067925124727</v>
+        <v>617.7363860918748</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>168.4026319313908</v>
+        <v>288.882174456774</v>
       </c>
       <c r="C48">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D48">
-        <v>32.76586819555644</v>
+        <v>56.20740687801572</v>
       </c>
       <c r="E48">
-        <v>32.21954108070962</v>
+        <v>55.27022339643005</v>
       </c>
       <c r="F48">
-        <v>27.8620005691306</v>
+        <v>47.79518714651393</v>
       </c>
       <c r="G48">
-        <v>100.6971987041585</v>
+        <v>172.7385456494208</v>
       </c>
       <c r="H48">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I48">
-        <v>367.2747155066286</v>
+        <v>630.0324242068497</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>120.898827614588</v>
+        <v>207.3929356686418</v>
       </c>
       <c r="C49">
-        <v>5.154532763565875</v>
+        <v>8.84221710771274</v>
       </c>
       <c r="D49">
-        <v>37.73039367973168</v>
+        <v>64.72368064741205</v>
       </c>
       <c r="E49">
-        <v>22.15093449298786</v>
+        <v>37.99827858504567</v>
       </c>
       <c r="F49">
-        <v>35.03439675524344</v>
+        <v>60.0988986891809</v>
       </c>
       <c r="G49">
-        <v>136.1072026440823</v>
+        <v>233.4817704931732</v>
       </c>
       <c r="H49">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I49">
-        <v>358.1588536411806</v>
+        <v>614.394842017451</v>
       </c>
     </row>
   </sheetData>
